--- a/JupyterNotebooks/AvgHW/Gamma1F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,25 +82,25 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,25 +626,25 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.006793432836524</v>
+      </c>
+      <c r="D3">
         <v>1.016574618169209</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.9858085759618092</v>
+      </c>
+      <c r="F3">
+        <v>1.005386490853267</v>
+      </c>
+      <c r="G3">
         <v>0.9717770873207789</v>
       </c>
-      <c r="E3">
+      <c r="H3">
+        <v>1.016574618169209</v>
+      </c>
+      <c r="I3">
         <v>1.002849203347194</v>
-      </c>
-      <c r="F3">
-        <v>1.016574618169209</v>
-      </c>
-      <c r="G3">
-        <v>1.005386490853267</v>
-      </c>
-      <c r="H3">
-        <v>0.9858085759618092</v>
-      </c>
-      <c r="I3">
-        <v>1.006793432836524</v>
       </c>
       <c r="J3">
         <v>0.9717770873207789</v>
@@ -728,7 +680,7 @@
         <v>0.9981982347481303</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,25 +688,25 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.013102001119629</v>
+      </c>
+      <c r="D4">
         <v>1.032239725709313</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.9726384375701365</v>
+      </c>
+      <c r="F4">
+        <v>1.010205978997884</v>
+      </c>
+      <c r="G4">
         <v>0.9452826108545648</v>
       </c>
-      <c r="E4">
+      <c r="H4">
+        <v>1.032239725709313</v>
+      </c>
+      <c r="I4">
         <v>1.005381522606072</v>
-      </c>
-      <c r="F4">
-        <v>1.032239725709313</v>
-      </c>
-      <c r="G4">
-        <v>1.010205978997884</v>
-      </c>
-      <c r="H4">
-        <v>0.9726384375701365</v>
-      </c>
-      <c r="I4">
-        <v>1.013102001119629</v>
       </c>
       <c r="J4">
         <v>0.9452826108545648</v>
@@ -790,7 +742,7 @@
         <v>0.9964750461429329</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,25 +750,25 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.02496556420085</v>
+      </c>
+      <c r="D5">
         <v>1.05954966810483</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.9475881573893238</v>
+      </c>
+      <c r="F5">
+        <v>1.022040151818459</v>
+      </c>
+      <c r="G5">
         <v>0.8967215228985393</v>
       </c>
-      <c r="E5">
+      <c r="H5">
+        <v>1.05954966810483</v>
+      </c>
+      <c r="I5">
         <v>1.011050626327929</v>
-      </c>
-      <c r="F5">
-        <v>1.05954966810483</v>
-      </c>
-      <c r="G5">
-        <v>1.022040151818459</v>
-      </c>
-      <c r="H5">
-        <v>0.9475881573893238</v>
-      </c>
-      <c r="I5">
-        <v>1.02496556420085</v>
       </c>
       <c r="J5">
         <v>0.8967215228985393</v>
@@ -852,7 +804,7 @@
         <v>0.9936526151233217</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,25 +812,25 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.036915489305604</v>
+      </c>
+      <c r="D6">
         <v>1.086229437357458</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.9226164907449184</v>
+      </c>
+      <c r="F6">
+        <v>1.032508140905462</v>
+      </c>
+      <c r="G6">
         <v>0.8497961956577867</v>
       </c>
-      <c r="E6">
-        <v>1.017267310417003</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
         <v>1.086229437357458</v>
       </c>
-      <c r="G6">
-        <v>1.032508140905462</v>
-      </c>
-      <c r="H6">
-        <v>0.9226164907449184</v>
-      </c>
       <c r="I6">
-        <v>1.036915489305604</v>
+        <v>1.017267310417002</v>
       </c>
       <c r="J6">
         <v>0.8497961956577867</v>
@@ -887,22 +839,22 @@
         <v>1.086229437357458</v>
       </c>
       <c r="L6">
-        <v>1.017267310417003</v>
+        <v>1.017267310417002</v>
       </c>
       <c r="M6">
-        <v>0.9335317530373948</v>
+        <v>0.9335317530373946</v>
       </c>
       <c r="N6">
-        <v>0.9335317530373948</v>
+        <v>0.9335317530373946</v>
       </c>
       <c r="O6">
-        <v>0.929893332273236</v>
+        <v>0.9298933322732358</v>
       </c>
       <c r="P6">
-        <v>0.9844309811440826</v>
+        <v>0.9844309811440825</v>
       </c>
       <c r="Q6">
-        <v>0.9844309811440826</v>
+        <v>0.9844309811440825</v>
       </c>
       <c r="R6">
         <v>1.009880595197426</v>
@@ -911,10 +863,10 @@
         <v>1.009880595197426</v>
       </c>
       <c r="T6">
-        <v>0.9908888440647053</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9908888440647052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,25 +874,25 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.000339207463039</v>
+      </c>
+      <c r="D7">
         <v>0.9998038016328786</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.9990868890292803</v>
+      </c>
+      <c r="F7">
+        <v>1.002062236368194</v>
+      </c>
+      <c r="G7">
         <v>0.9988201841617398</v>
       </c>
-      <c r="E7">
+      <c r="H7">
+        <v>0.9998038016328786</v>
+      </c>
+      <c r="I7">
         <v>1.000567968705972</v>
-      </c>
-      <c r="F7">
-        <v>0.9998038016328786</v>
-      </c>
-      <c r="G7">
-        <v>1.002062236368194</v>
-      </c>
-      <c r="H7">
-        <v>0.9990868890292803</v>
-      </c>
-      <c r="I7">
-        <v>1.000339207463039</v>
       </c>
       <c r="J7">
         <v>0.9988201841617398</v>
@@ -976,7 +928,7 @@
         <v>1.000113381226851</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,31 +936,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.99981286344318</v>
+        <v>1.000887329359459</v>
       </c>
       <c r="D8">
+        <v>0.9998128634431803</v>
+      </c>
+      <c r="E8">
+        <v>0.9976547886753954</v>
+      </c>
+      <c r="F8">
+        <v>1.004919897001366</v>
+      </c>
+      <c r="G8">
         <v>0.9968441503272339</v>
       </c>
-      <c r="E8">
+      <c r="H8">
+        <v>0.9998128634431803</v>
+      </c>
+      <c r="I8">
         <v>1.001347708827994</v>
-      </c>
-      <c r="F8">
-        <v>0.99981286344318</v>
-      </c>
-      <c r="G8">
-        <v>1.004919897001366</v>
-      </c>
-      <c r="H8">
-        <v>0.9976547886753957</v>
-      </c>
-      <c r="I8">
-        <v>1.000887329359459</v>
       </c>
       <c r="J8">
         <v>0.9968441503272339</v>
       </c>
       <c r="K8">
-        <v>0.99981286344318</v>
+        <v>0.9998128634431803</v>
       </c>
       <c r="L8">
         <v>1.001347708827994</v>
@@ -1020,25 +972,25 @@
         <v>0.9990959295776141</v>
       </c>
       <c r="O8">
-        <v>0.9986155492768747</v>
+        <v>0.9986155492768746</v>
       </c>
       <c r="P8">
-        <v>0.9993349075328027</v>
+        <v>0.9993349075328029</v>
       </c>
       <c r="Q8">
-        <v>0.9993349075328027</v>
+        <v>0.9993349075328029</v>
       </c>
       <c r="R8">
-        <v>0.999454396510397</v>
+        <v>0.9994543965103972</v>
       </c>
       <c r="S8">
-        <v>0.999454396510397</v>
+        <v>0.9994543965103972</v>
       </c>
       <c r="T8">
         <v>1.000244456272438</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,25 +998,25 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.001302918783733</v>
+      </c>
+      <c r="D9">
         <v>1.000440756587653</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.9966744804280916</v>
+      </c>
+      <c r="F9">
+        <v>1.006084067957125</v>
+      </c>
+      <c r="G9">
         <v>0.9951756351108433</v>
       </c>
-      <c r="E9">
+      <c r="H9">
+        <v>1.000440756587653</v>
+      </c>
+      <c r="I9">
         <v>1.001684561949448</v>
-      </c>
-      <c r="F9">
-        <v>1.000440756587653</v>
-      </c>
-      <c r="G9">
-        <v>1.006084067957125</v>
-      </c>
-      <c r="H9">
-        <v>0.9966744804280916</v>
-      </c>
-      <c r="I9">
-        <v>1.001302918783733</v>
       </c>
       <c r="J9">
         <v>0.9951756351108433</v>
@@ -1100,7 +1052,7 @@
         <v>1.000227070136149</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,25 +1060,25 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.002718393380789</v>
+      </c>
+      <c r="D10">
         <v>1.000084448564041</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.992880468653707</v>
+      </c>
+      <c r="F10">
+        <v>1.014190172078232</v>
+      </c>
+      <c r="G10">
         <v>0.9901801920807253</v>
       </c>
-      <c r="E10">
+      <c r="H10">
+        <v>1.000084448564041</v>
+      </c>
+      <c r="I10">
         <v>1.003863286939544</v>
-      </c>
-      <c r="F10">
-        <v>1.000084448564041</v>
-      </c>
-      <c r="G10">
-        <v>1.014190172078232</v>
-      </c>
-      <c r="H10">
-        <v>0.992880468653707</v>
-      </c>
-      <c r="I10">
-        <v>1.002718393380789</v>
       </c>
       <c r="J10">
         <v>0.9901801920807253</v>
@@ -1147,22 +1099,22 @@
         <v>0.9956413158913252</v>
       </c>
       <c r="P10">
-        <v>0.9980426425281035</v>
+        <v>0.9980426425281034</v>
       </c>
       <c r="Q10">
-        <v>0.9980426425281035</v>
+        <v>0.9980426425281034</v>
       </c>
       <c r="R10">
-        <v>0.9985530940370879</v>
+        <v>0.9985530940370878</v>
       </c>
       <c r="S10">
-        <v>0.9985530940370879</v>
+        <v>0.9985530940370878</v>
       </c>
       <c r="T10">
         <v>1.000652826949507</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,25 +1122,25 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.004648548231202</v>
+      </c>
+      <c r="D11">
         <v>1.001966131002479</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.9880780842588842</v>
+      </c>
+      <c r="F11">
+        <v>1.021547845123535</v>
+      </c>
+      <c r="G11">
         <v>0.9828083148509223</v>
       </c>
-      <c r="E11">
+      <c r="H11">
+        <v>1.001966131002479</v>
+      </c>
+      <c r="I11">
         <v>1.005848686798134</v>
-      </c>
-      <c r="F11">
-        <v>1.001966131002479</v>
-      </c>
-      <c r="G11">
-        <v>1.021547845123535</v>
-      </c>
-      <c r="H11">
-        <v>0.9880780842588842</v>
-      </c>
-      <c r="I11">
-        <v>1.004648548231202</v>
       </c>
       <c r="J11">
         <v>0.9828083148509223</v>
@@ -1224,7 +1176,7 @@
         <v>1.000816268377526</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,25 +1184,25 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9631478332547384</v>
+      </c>
+      <c r="D12">
         <v>1.127532719826262</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>1.102812605789562</v>
+      </c>
+      <c r="F12">
+        <v>0.6737229380453349</v>
+      </c>
+      <c r="G12">
         <v>1.08026522734354</v>
       </c>
-      <c r="E12">
-        <v>0.8953101273278892</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
         <v>1.127532719826262</v>
       </c>
-      <c r="G12">
-        <v>0.6737229380453352</v>
-      </c>
-      <c r="H12">
-        <v>1.102812605789562</v>
-      </c>
       <c r="I12">
-        <v>0.9631478332547384</v>
+        <v>0.8953101273278891</v>
       </c>
       <c r="J12">
         <v>1.08026522734354</v>
@@ -1259,13 +1211,13 @@
         <v>1.127532719826262</v>
       </c>
       <c r="L12">
-        <v>0.8953101273278892</v>
+        <v>0.8953101273278891</v>
       </c>
       <c r="M12">
-        <v>0.9877876773357146</v>
+        <v>0.9877876773357148</v>
       </c>
       <c r="N12">
-        <v>0.9877876773357146</v>
+        <v>0.9877876773357148</v>
       </c>
       <c r="O12">
         <v>1.026129320153664</v>
@@ -1286,7 +1238,7 @@
         <v>0.9737985752645545</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,25 +1246,25 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.983081531568905</v>
+      </c>
+      <c r="D13">
         <v>0.913971151953227</v>
       </c>
-      <c r="D13">
+      <c r="E13">
+        <v>1.0278688742625</v>
+      </c>
+      <c r="F13">
+        <v>1.047251579162378</v>
+      </c>
+      <c r="G13">
         <v>1.105869018855079</v>
       </c>
-      <c r="E13">
+      <c r="H13">
+        <v>0.913971151953227</v>
+      </c>
+      <c r="I13">
         <v>1.011601476215179</v>
-      </c>
-      <c r="F13">
-        <v>0.913971151953227</v>
-      </c>
-      <c r="G13">
-        <v>1.047251579162378</v>
-      </c>
-      <c r="H13">
-        <v>1.0278688742625</v>
-      </c>
-      <c r="I13">
-        <v>0.983081531568905</v>
       </c>
       <c r="J13">
         <v>1.105869018855079</v>
@@ -1348,7 +1300,7 @@
         <v>1.014940605336211</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.9609209112134006</v>
+      </c>
+      <c r="D14">
         <v>1.128368443157231</v>
       </c>
-      <c r="D14">
-        <v>1.107059991008628</v>
-      </c>
       <c r="E14">
+        <v>1.100695383058844</v>
+      </c>
+      <c r="F14">
+        <v>0.6880547720962833</v>
+      </c>
+      <c r="G14">
+        <v>1.107059991008629</v>
+      </c>
+      <c r="H14">
+        <v>1.128368443157231</v>
+      </c>
+      <c r="I14">
         <v>0.891306929757687</v>
       </c>
-      <c r="F14">
-        <v>1.128368443157231</v>
-      </c>
-      <c r="G14">
-        <v>0.6880547720962834</v>
-      </c>
-      <c r="H14">
-        <v>1.100695383058844</v>
-      </c>
-      <c r="I14">
-        <v>0.9609209112134006</v>
-      </c>
       <c r="J14">
-        <v>1.107059991008628</v>
+        <v>1.107059991008629</v>
       </c>
       <c r="K14">
         <v>1.128368443157231</v>
@@ -1386,10 +1338,10 @@
         <v>0.891306929757687</v>
       </c>
       <c r="M14">
-        <v>0.9991834603831576</v>
+        <v>0.9991834603831578</v>
       </c>
       <c r="N14">
-        <v>0.9991834603831576</v>
+        <v>0.9991834603831578</v>
       </c>
       <c r="O14">
         <v>1.03302076794172</v>
@@ -1407,10 +1359,10 @@
         <v>1.063775951770194</v>
       </c>
       <c r="T14">
-        <v>0.9794010717153454</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9794010717153455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,25 +1370,25 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.9845168770916293</v>
+      </c>
+      <c r="D15">
         <v>0.9047903044316972</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>1.032003430596635</v>
+      </c>
+      <c r="F15">
+        <v>1.04052518779118</v>
+      </c>
+      <c r="G15">
         <v>1.076603690857342</v>
       </c>
-      <c r="E15">
+      <c r="H15">
+        <v>0.9047903044316972</v>
+      </c>
+      <c r="I15">
         <v>1.017551759393651</v>
-      </c>
-      <c r="F15">
-        <v>0.9047903044316972</v>
-      </c>
-      <c r="G15">
-        <v>1.04052518779118</v>
-      </c>
-      <c r="H15">
-        <v>1.032003430596635</v>
-      </c>
-      <c r="I15">
-        <v>0.9845168770916294</v>
       </c>
       <c r="J15">
         <v>1.076603690857342</v>
@@ -1448,19 +1400,19 @@
         <v>1.017551759393651</v>
       </c>
       <c r="M15">
-        <v>1.047077725125496</v>
+        <v>1.047077725125497</v>
       </c>
       <c r="N15">
-        <v>1.047077725125496</v>
+        <v>1.047077725125497</v>
       </c>
       <c r="O15">
         <v>1.042052960282543</v>
       </c>
       <c r="P15">
-        <v>0.9996485848942299</v>
+        <v>0.9996485848942301</v>
       </c>
       <c r="Q15">
-        <v>0.99964858489423</v>
+        <v>0.9996485848942301</v>
       </c>
       <c r="R15">
         <v>0.9759340147785969</v>
@@ -1472,7 +1424,7 @@
         <v>1.009331875027023</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9969253212237277</v>
+        <v>1.13032587493874</v>
       </c>
       <c r="D16">
-        <v>1.000808211011288</v>
+        <v>1.296900932914006</v>
       </c>
       <c r="E16">
-        <v>1.001170944375948</v>
+        <v>0.7256734446027426</v>
       </c>
       <c r="F16">
-        <v>0.9969253212237277</v>
+        <v>1.133449541870591</v>
       </c>
       <c r="G16">
-        <v>1.002783168207454</v>
+        <v>0.4597697795933259</v>
       </c>
       <c r="H16">
-        <v>1.000106149297844</v>
+        <v>1.296900932914006</v>
       </c>
       <c r="I16">
-        <v>0.9999321421642081</v>
+        <v>1.062996964630874</v>
       </c>
       <c r="J16">
-        <v>1.000808211011288</v>
+        <v>0.4597697795933259</v>
       </c>
       <c r="K16">
-        <v>0.9969253212237277</v>
+        <v>1.296900932914006</v>
       </c>
       <c r="L16">
-        <v>1.001170944375948</v>
+        <v>1.062996964630874</v>
       </c>
       <c r="M16">
-        <v>1.000989577693618</v>
+        <v>0.7613833721120997</v>
       </c>
       <c r="N16">
-        <v>1.000989577693618</v>
+        <v>0.7613833721120997</v>
       </c>
       <c r="O16">
-        <v>1.000695101561694</v>
+        <v>0.7494800629423141</v>
       </c>
       <c r="P16">
-        <v>0.9996348255369881</v>
+        <v>0.939889225712735</v>
       </c>
       <c r="Q16">
-        <v>0.9996348255369881</v>
+        <v>0.939889225712735</v>
       </c>
       <c r="R16">
-        <v>0.998957449458673</v>
+        <v>1.029142152513053</v>
       </c>
       <c r="S16">
-        <v>0.998957449458673</v>
+        <v>1.029142152513053</v>
       </c>
       <c r="T16">
-        <v>1.000287656046745</v>
+        <v>0.9681860897583796</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.003746377644306</v>
+        <v>1.102196536391558</v>
       </c>
       <c r="D17">
-        <v>0.9972633192141398</v>
+        <v>1.192427459653492</v>
       </c>
       <c r="E17">
-        <v>0.9991721652816099</v>
+        <v>0.7788257866913761</v>
       </c>
       <c r="F17">
-        <v>1.003746377644306</v>
+        <v>1.167001521655585</v>
       </c>
       <c r="G17">
-        <v>0.9991479783530505</v>
+        <v>0.5857704201026028</v>
       </c>
       <c r="H17">
-        <v>0.9987284105562606</v>
+        <v>1.192427459653492</v>
       </c>
       <c r="I17">
-        <v>1.000492989533705</v>
+        <v>1.06600185035144</v>
       </c>
       <c r="J17">
-        <v>0.9972633192141398</v>
+        <v>0.5857704201026028</v>
       </c>
       <c r="K17">
-        <v>1.003746377644306</v>
+        <v>1.192427459653492</v>
       </c>
       <c r="L17">
-        <v>0.9991721652816099</v>
+        <v>1.06600185035144</v>
       </c>
       <c r="M17">
-        <v>0.9982177422478749</v>
+        <v>0.8258861352270216</v>
       </c>
       <c r="N17">
-        <v>0.9982177422478749</v>
+        <v>0.8258861352270216</v>
       </c>
       <c r="O17">
-        <v>0.9983879650173367</v>
+        <v>0.8101993523818064</v>
       </c>
       <c r="P17">
-        <v>1.000060620713352</v>
+        <v>0.9480665767025117</v>
       </c>
       <c r="Q17">
-        <v>1.000060620713352</v>
+        <v>0.9480665767025117</v>
       </c>
       <c r="R17">
-        <v>1.000982059946091</v>
+        <v>1.009156797440257</v>
       </c>
       <c r="S17">
-        <v>1.000982059946091</v>
+        <v>1.009156797440257</v>
       </c>
       <c r="T17">
-        <v>0.9997585400971788</v>
+        <v>0.9820372624743424</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9974523094592036</v>
+        <v>1.0458814527039</v>
       </c>
       <c r="D18">
-        <v>0.9931543713880705</v>
+        <v>0.985197010428433</v>
       </c>
       <c r="E18">
-        <v>1.0038817277547</v>
+        <v>0.8855155586769508</v>
       </c>
       <c r="F18">
-        <v>0.9974523094592036</v>
+        <v>1.231235181465748</v>
       </c>
       <c r="G18">
-        <v>1.007976328883872</v>
+        <v>0.8376021542340462</v>
       </c>
       <c r="H18">
-        <v>0.9959864048383635</v>
+        <v>0.985197010428433</v>
       </c>
       <c r="I18">
-        <v>1.001948431601162</v>
+        <v>1.07122415317965</v>
       </c>
       <c r="J18">
-        <v>0.9931543713880705</v>
+        <v>0.8376021542340462</v>
       </c>
       <c r="K18">
-        <v>0.9974523094592036</v>
+        <v>0.985197010428433</v>
       </c>
       <c r="L18">
-        <v>1.0038817277547</v>
+        <v>1.07122415317965</v>
       </c>
       <c r="M18">
-        <v>0.998518049571385</v>
+        <v>0.954413153706848</v>
       </c>
       <c r="N18">
-        <v>0.998518049571385</v>
+        <v>0.954413153706848</v>
       </c>
       <c r="O18">
-        <v>0.9976741679937112</v>
+        <v>0.9314472886968822</v>
       </c>
       <c r="P18">
-        <v>0.9981628028673245</v>
+        <v>0.9646744392807096</v>
       </c>
       <c r="Q18">
-        <v>0.9981628028673247</v>
+        <v>0.9646744392807096</v>
       </c>
       <c r="R18">
-        <v>0.9979851795152944</v>
+        <v>0.9698050820676405</v>
       </c>
       <c r="S18">
-        <v>0.9979851795152944</v>
+        <v>0.9698050820676405</v>
       </c>
       <c r="T18">
-        <v>1.000066595654229</v>
+        <v>1.009442585114788</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.0474424629747</v>
+      </c>
+      <c r="D19">
+        <v>0.9626887190334777</v>
+      </c>
+      <c r="E19">
+        <v>0.8756218238762075</v>
+      </c>
+      <c r="F19">
+        <v>1.281757542032794</v>
+      </c>
+      <c r="G19">
+        <v>0.8430875853522751</v>
+      </c>
+      <c r="H19">
+        <v>0.9626887190334777</v>
+      </c>
+      <c r="I19">
+        <v>1.082840599769043</v>
+      </c>
+      <c r="J19">
+        <v>0.8430875853522751</v>
+      </c>
+      <c r="K19">
+        <v>0.9626887190334777</v>
+      </c>
+      <c r="L19">
+        <v>1.082840599769043</v>
+      </c>
+      <c r="M19">
+        <v>0.9629640925606591</v>
+      </c>
+      <c r="N19">
+        <v>0.9629640925606591</v>
+      </c>
+      <c r="O19">
+        <v>0.9338500029991752</v>
+      </c>
+      <c r="P19">
+        <v>0.962872301384932</v>
+      </c>
+      <c r="Q19">
+        <v>0.9628723013849321</v>
+      </c>
+      <c r="R19">
+        <v>0.9628264057970685</v>
+      </c>
+      <c r="S19">
+        <v>0.9628264057970685</v>
+      </c>
+      <c r="T19">
+        <v>1.015573122173083</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999321421642081</v>
+      </c>
+      <c r="D20">
+        <v>0.9969253212237277</v>
+      </c>
+      <c r="E20">
+        <v>1.000106149297844</v>
+      </c>
+      <c r="F20">
+        <v>1.002783168207454</v>
+      </c>
+      <c r="G20">
+        <v>1.000808211011288</v>
+      </c>
+      <c r="H20">
+        <v>0.9969253212237277</v>
+      </c>
+      <c r="I20">
+        <v>1.001170944375949</v>
+      </c>
+      <c r="J20">
+        <v>1.000808211011288</v>
+      </c>
+      <c r="K20">
+        <v>0.9969253212237277</v>
+      </c>
+      <c r="L20">
+        <v>1.001170944375949</v>
+      </c>
+      <c r="M20">
+        <v>1.000989577693618</v>
+      </c>
+      <c r="N20">
+        <v>1.000989577693618</v>
+      </c>
+      <c r="O20">
+        <v>1.000695101561694</v>
+      </c>
+      <c r="P20">
+        <v>0.9996348255369881</v>
+      </c>
+      <c r="Q20">
+        <v>0.9996348255369881</v>
+      </c>
+      <c r="R20">
+        <v>0.998957449458673</v>
+      </c>
+      <c r="S20">
+        <v>0.998957449458673</v>
+      </c>
+      <c r="T20">
+        <v>1.000287656046745</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000492989533705</v>
+      </c>
+      <c r="D21">
+        <v>1.003746377644306</v>
+      </c>
+      <c r="E21">
+        <v>0.9987284105562606</v>
+      </c>
+      <c r="F21">
+        <v>0.9991479783530509</v>
+      </c>
+      <c r="G21">
+        <v>0.9972633192141398</v>
+      </c>
+      <c r="H21">
+        <v>1.003746377644306</v>
+      </c>
+      <c r="I21">
+        <v>0.9991721652816101</v>
+      </c>
+      <c r="J21">
+        <v>0.9972633192141398</v>
+      </c>
+      <c r="K21">
+        <v>1.003746377644306</v>
+      </c>
+      <c r="L21">
+        <v>0.9991721652816101</v>
+      </c>
+      <c r="M21">
+        <v>0.998217742247875</v>
+      </c>
+      <c r="N21">
+        <v>0.998217742247875</v>
+      </c>
+      <c r="O21">
+        <v>0.9983879650173368</v>
+      </c>
+      <c r="P21">
+        <v>1.000060620713352</v>
+      </c>
+      <c r="Q21">
+        <v>1.000060620713352</v>
+      </c>
+      <c r="R21">
+        <v>1.000982059946091</v>
+      </c>
+      <c r="S21">
+        <v>1.000982059946091</v>
+      </c>
+      <c r="T21">
+        <v>0.9997585400971789</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.001948431601162</v>
+      </c>
+      <c r="D22">
+        <v>0.9974523094592036</v>
+      </c>
+      <c r="E22">
+        <v>0.9959864048383635</v>
+      </c>
+      <c r="F22">
+        <v>1.007976328883873</v>
+      </c>
+      <c r="G22">
+        <v>0.9931543713880703</v>
+      </c>
+      <c r="H22">
+        <v>0.9974523094592036</v>
+      </c>
+      <c r="I22">
+        <v>1.003881727754699</v>
+      </c>
+      <c r="J22">
+        <v>0.9931543713880703</v>
+      </c>
+      <c r="K22">
+        <v>0.9974523094592036</v>
+      </c>
+      <c r="L22">
+        <v>1.003881727754699</v>
+      </c>
+      <c r="M22">
+        <v>0.9985180495713848</v>
+      </c>
+      <c r="N22">
+        <v>0.9985180495713848</v>
+      </c>
+      <c r="O22">
+        <v>0.997674167993711</v>
+      </c>
+      <c r="P22">
+        <v>0.9981628028673244</v>
+      </c>
+      <c r="Q22">
+        <v>0.9981628028673244</v>
+      </c>
+      <c r="R22">
+        <v>0.9979851795152942</v>
+      </c>
+      <c r="S22">
+        <v>0.9979851795152942</v>
+      </c>
+      <c r="T22">
+        <v>1.000066595654229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.004975120878393</v>
+      </c>
+      <c r="D23">
         <v>0.9851299883489001</v>
       </c>
-      <c r="D19">
+      <c r="E23">
+        <v>0.9909605683113726</v>
+      </c>
+      <c r="F23">
+        <v>1.023420668772174</v>
+      </c>
+      <c r="G23">
         <v>0.9840649528537047</v>
       </c>
-      <c r="E19">
+      <c r="H23">
+        <v>0.9851299883489001</v>
+      </c>
+      <c r="I23">
         <v>1.013083819112101</v>
       </c>
-      <c r="F19">
+      <c r="J23">
+        <v>0.9840649528537047</v>
+      </c>
+      <c r="K23">
         <v>0.9851299883489001</v>
       </c>
-      <c r="G19">
-        <v>1.023420668772174</v>
-      </c>
-      <c r="H19">
-        <v>0.9909605683113726</v>
-      </c>
-      <c r="I19">
-        <v>1.004975120878393</v>
-      </c>
-      <c r="J19">
-        <v>0.9840649528537047</v>
-      </c>
-      <c r="K19">
-        <v>0.9851299883489001</v>
-      </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.013083819112101</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9985743859829027</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9985743859829027</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9960364467590593</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9940929201049018</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9940929201049018</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9918521871659014</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9918521871659014</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000272519712774</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW20.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.006793432836524</v>
+        <v>1.054282889553313</v>
       </c>
       <c r="D3">
-        <v>1.016574618169209</v>
+        <v>0.9862551054034612</v>
       </c>
       <c r="E3">
-        <v>0.9858085759618092</v>
+        <v>0.8644370523487006</v>
       </c>
       <c r="F3">
-        <v>1.005386490853267</v>
+        <v>1.270964248170029</v>
       </c>
       <c r="G3">
-        <v>0.9717770873207789</v>
+        <v>0.8058706541188749</v>
       </c>
       <c r="H3">
-        <v>1.016574618169209</v>
+        <v>0.9862551054034612</v>
       </c>
       <c r="I3">
-        <v>1.002849203347194</v>
+        <v>1.082828135893373</v>
       </c>
       <c r="J3">
-        <v>0.9717770873207789</v>
+        <v>0.8058706541188749</v>
       </c>
       <c r="K3">
-        <v>1.016574618169209</v>
+        <v>0.9862551054034612</v>
       </c>
       <c r="L3">
-        <v>1.002849203347194</v>
+        <v>1.082828135893373</v>
       </c>
       <c r="M3">
-        <v>0.9873131453339863</v>
+        <v>0.9443493950061239</v>
       </c>
       <c r="N3">
-        <v>0.9873131453339863</v>
+        <v>0.9443493950061239</v>
       </c>
       <c r="O3">
-        <v>0.9868116222099271</v>
+        <v>0.9177119474536495</v>
       </c>
       <c r="P3">
-        <v>0.9970669696123937</v>
+        <v>0.9583179651385697</v>
       </c>
       <c r="Q3">
-        <v>0.9970669696123937</v>
+        <v>0.9583179651385697</v>
       </c>
       <c r="R3">
-        <v>1.001943881751597</v>
+        <v>0.9653022502047925</v>
       </c>
       <c r="S3">
-        <v>1.001943881751597</v>
+        <v>0.9653022502047925</v>
       </c>
       <c r="T3">
-        <v>0.9981982347481303</v>
+        <v>1.010773014247959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.013102001119629</v>
+        <v>1.049603185613121</v>
       </c>
       <c r="D4">
-        <v>1.032239725709313</v>
+        <v>0.9841699087914677</v>
       </c>
       <c r="E4">
-        <v>0.9726384375701365</v>
+        <v>0.8760405372251215</v>
       </c>
       <c r="F4">
-        <v>1.010205978997884</v>
+        <v>1.250817125278617</v>
       </c>
       <c r="G4">
-        <v>0.9452826108545648</v>
+        <v>0.8238044783611614</v>
       </c>
       <c r="H4">
-        <v>1.032239725709313</v>
+        <v>0.9841699087914677</v>
       </c>
       <c r="I4">
-        <v>1.005381522606072</v>
+        <v>1.076976821467564</v>
       </c>
       <c r="J4">
-        <v>0.9452826108545648</v>
+        <v>0.8238044783611614</v>
       </c>
       <c r="K4">
-        <v>1.032239725709313</v>
+        <v>0.9841699087914677</v>
       </c>
       <c r="L4">
-        <v>1.005381522606072</v>
+        <v>1.076976821467564</v>
       </c>
       <c r="M4">
-        <v>0.9753320667303182</v>
+        <v>0.9503906499143628</v>
       </c>
       <c r="N4">
-        <v>0.9753320667303182</v>
+        <v>0.9503906499143628</v>
       </c>
       <c r="O4">
-        <v>0.974434190343591</v>
+        <v>0.925607279017949</v>
       </c>
       <c r="P4">
-        <v>0.9943012863899833</v>
+        <v>0.9616504028733978</v>
       </c>
       <c r="Q4">
-        <v>0.9943012863899831</v>
+        <v>0.9616504028733979</v>
       </c>
       <c r="R4">
-        <v>1.003785896219816</v>
+        <v>0.9672802793529154</v>
       </c>
       <c r="S4">
-        <v>1.003785896219816</v>
+        <v>0.9672802793529154</v>
       </c>
       <c r="T4">
-        <v>0.9964750461429329</v>
+        <v>1.010235342789509</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.02496556420085</v>
+        <v>1.063138599865229</v>
       </c>
       <c r="D5">
-        <v>1.05954966810483</v>
+        <v>0.9900472781401607</v>
       </c>
       <c r="E5">
-        <v>0.9475881573893238</v>
+        <v>0.8423766533153639</v>
       </c>
       <c r="F5">
-        <v>1.022040151818459</v>
+        <v>1.309638861078168</v>
       </c>
       <c r="G5">
-        <v>0.8967215228985393</v>
+        <v>0.772011078452831</v>
       </c>
       <c r="H5">
-        <v>1.05954966810483</v>
+        <v>0.9900472781401607</v>
       </c>
       <c r="I5">
-        <v>1.011050626327929</v>
+        <v>1.093969076118596</v>
       </c>
       <c r="J5">
-        <v>0.8967215228985393</v>
+        <v>0.772011078452831</v>
       </c>
       <c r="K5">
-        <v>1.05954966810483</v>
+        <v>0.9900472781401607</v>
       </c>
       <c r="L5">
-        <v>1.011050626327929</v>
+        <v>1.093969076118596</v>
       </c>
       <c r="M5">
-        <v>0.9538860746132343</v>
+        <v>0.9329900772857136</v>
       </c>
       <c r="N5">
-        <v>0.9538860746132343</v>
+        <v>0.9329900772857136</v>
       </c>
       <c r="O5">
-        <v>0.9517867688719308</v>
+        <v>0.9027856026289304</v>
       </c>
       <c r="P5">
-        <v>0.9891072724437663</v>
+        <v>0.952009144237196</v>
       </c>
       <c r="Q5">
-        <v>0.9891072724437661</v>
+        <v>0.9520091442371958</v>
       </c>
       <c r="R5">
-        <v>1.006717871359032</v>
+        <v>0.9615186777129371</v>
       </c>
       <c r="S5">
-        <v>1.006717871359032</v>
+        <v>0.9615186777129371</v>
       </c>
       <c r="T5">
-        <v>0.9936526151233217</v>
+        <v>1.011863591161725</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.036915489305604</v>
+        <v>1.07136962534091</v>
       </c>
       <c r="D6">
-        <v>1.086229437357458</v>
+        <v>0.993388411988636</v>
       </c>
       <c r="E6">
-        <v>0.9226164907449184</v>
+        <v>0.8217502428977264</v>
       </c>
       <c r="F6">
-        <v>1.032508140905462</v>
+        <v>1.346240419488637</v>
       </c>
       <c r="G6">
-        <v>0.8497961956577867</v>
+        <v>0.7406327856363639</v>
       </c>
       <c r="H6">
-        <v>1.086229437357458</v>
+        <v>0.993388411988636</v>
       </c>
       <c r="I6">
-        <v>1.017267310417002</v>
+        <v>1.104405421420455</v>
       </c>
       <c r="J6">
-        <v>0.8497961956577867</v>
+        <v>0.7406327856363639</v>
       </c>
       <c r="K6">
-        <v>1.086229437357458</v>
+        <v>0.993388411988636</v>
       </c>
       <c r="L6">
-        <v>1.017267310417002</v>
+        <v>1.104405421420455</v>
       </c>
       <c r="M6">
-        <v>0.9335317530373946</v>
+        <v>0.9225191035284093</v>
       </c>
       <c r="N6">
-        <v>0.9335317530373946</v>
+        <v>0.9225191035284093</v>
       </c>
       <c r="O6">
-        <v>0.9298933322732358</v>
+        <v>0.8889294833181817</v>
       </c>
       <c r="P6">
-        <v>0.9844309811440825</v>
+        <v>0.9461422063484849</v>
       </c>
       <c r="Q6">
-        <v>0.9844309811440825</v>
+        <v>0.9461422063484849</v>
       </c>
       <c r="R6">
-        <v>1.009880595197426</v>
+        <v>0.9579537577585227</v>
       </c>
       <c r="S6">
-        <v>1.009880595197426</v>
+        <v>0.9579537577585227</v>
       </c>
       <c r="T6">
-        <v>0.9908888440647052</v>
+        <v>1.012964484462121</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000339207463039</v>
+        <v>1.047080298543588</v>
       </c>
       <c r="D7">
-        <v>0.9998038016328786</v>
+        <v>1.124226095800653</v>
       </c>
       <c r="E7">
-        <v>0.9990868890292803</v>
+        <v>0.9254487885520812</v>
       </c>
       <c r="F7">
-        <v>1.002062236368194</v>
+        <v>0.9576095904106148</v>
       </c>
       <c r="G7">
-        <v>0.9988201841617398</v>
+        <v>0.733639635750046</v>
       </c>
       <c r="H7">
-        <v>0.9998038016328786</v>
+        <v>1.124226095800653</v>
       </c>
       <c r="I7">
-        <v>1.000567968705972</v>
+        <v>1.015803800283506</v>
       </c>
       <c r="J7">
-        <v>0.9988201841617398</v>
+        <v>0.733639635750046</v>
       </c>
       <c r="K7">
-        <v>0.9998038016328786</v>
+        <v>1.124226095800653</v>
       </c>
       <c r="L7">
-        <v>1.000567968705972</v>
+        <v>1.015803800283506</v>
       </c>
       <c r="M7">
-        <v>0.999694076433856</v>
+        <v>0.8747217180167761</v>
       </c>
       <c r="N7">
-        <v>0.999694076433856</v>
+        <v>0.8747217180167761</v>
       </c>
       <c r="O7">
-        <v>0.9994916806323308</v>
+        <v>0.8916307415285445</v>
       </c>
       <c r="P7">
-        <v>0.9997306515001969</v>
+        <v>0.9578898439447349</v>
       </c>
       <c r="Q7">
-        <v>0.9997306515001968</v>
+        <v>0.9578898439447349</v>
       </c>
       <c r="R7">
-        <v>0.9997489390333673</v>
+        <v>0.9994739069087144</v>
       </c>
       <c r="S7">
-        <v>0.9997489390333673</v>
+        <v>0.9994739069087144</v>
       </c>
       <c r="T7">
-        <v>1.000113381226851</v>
+        <v>0.9673013682234147</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000887329359459</v>
+        <v>1.048111429358485</v>
       </c>
       <c r="D8">
-        <v>0.9998128634431803</v>
+        <v>1.124175870147461</v>
       </c>
       <c r="E8">
-        <v>0.9976547886753954</v>
+        <v>0.9224304145774895</v>
       </c>
       <c r="F8">
-        <v>1.004919897001366</v>
+        <v>0.9642386048563198</v>
       </c>
       <c r="G8">
-        <v>0.9968441503272339</v>
+        <v>0.7302881228589319</v>
       </c>
       <c r="H8">
-        <v>0.9998128634431803</v>
+        <v>1.124175870147461</v>
       </c>
       <c r="I8">
-        <v>1.001347708827994</v>
+        <v>1.017319443930226</v>
       </c>
       <c r="J8">
-        <v>0.9968441503272339</v>
+        <v>0.7302881228589319</v>
       </c>
       <c r="K8">
-        <v>0.9998128634431803</v>
+        <v>1.124175870147461</v>
       </c>
       <c r="L8">
-        <v>1.001347708827994</v>
+        <v>1.017319443930226</v>
       </c>
       <c r="M8">
-        <v>0.9990959295776141</v>
+        <v>0.8738037833945786</v>
       </c>
       <c r="N8">
-        <v>0.9990959295776141</v>
+        <v>0.8738037833945786</v>
       </c>
       <c r="O8">
-        <v>0.9986155492768746</v>
+        <v>0.8900126604555489</v>
       </c>
       <c r="P8">
-        <v>0.9993349075328029</v>
+        <v>0.9572611456455394</v>
       </c>
       <c r="Q8">
-        <v>0.9993349075328029</v>
+        <v>0.9572611456455394</v>
       </c>
       <c r="R8">
-        <v>0.9994543965103972</v>
+        <v>0.9989898267710198</v>
       </c>
       <c r="S8">
-        <v>0.9994543965103972</v>
+        <v>0.9989898267710198</v>
       </c>
       <c r="T8">
-        <v>1.000244456272438</v>
+        <v>0.9677606476214855</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.001302918783733</v>
+        <v>1.04890459514672</v>
       </c>
       <c r="D9">
-        <v>1.000440756587653</v>
+        <v>1.122724582938147</v>
       </c>
       <c r="E9">
-        <v>0.9966744804280916</v>
+        <v>0.9199578655038926</v>
       </c>
       <c r="F9">
-        <v>1.006084067957125</v>
+        <v>0.9713032810956432</v>
       </c>
       <c r="G9">
-        <v>0.9951756351108433</v>
+        <v>0.7279234890414585</v>
       </c>
       <c r="H9">
-        <v>1.000440756587653</v>
+        <v>1.122724582938147</v>
       </c>
       <c r="I9">
-        <v>1.001684561949448</v>
+        <v>1.019068832800881</v>
       </c>
       <c r="J9">
-        <v>0.9951756351108433</v>
+        <v>0.7279234890414585</v>
       </c>
       <c r="K9">
-        <v>1.000440756587653</v>
+        <v>1.122724582938147</v>
       </c>
       <c r="L9">
-        <v>1.001684561949448</v>
+        <v>1.019068832800881</v>
       </c>
       <c r="M9">
-        <v>0.9984300985301457</v>
+        <v>0.8734961609211698</v>
       </c>
       <c r="N9">
-        <v>0.9984300985301457</v>
+        <v>0.8734961609211698</v>
       </c>
       <c r="O9">
-        <v>0.9978448924961277</v>
+        <v>0.8889833957820774</v>
       </c>
       <c r="P9">
-        <v>0.999100317882648</v>
+        <v>0.9565723015934955</v>
       </c>
       <c r="Q9">
-        <v>0.999100317882648</v>
+        <v>0.9565723015934955</v>
       </c>
       <c r="R9">
-        <v>0.999435427558899</v>
+        <v>0.9981103719296583</v>
       </c>
       <c r="S9">
-        <v>0.999435427558899</v>
+        <v>0.9981103719296583</v>
       </c>
       <c r="T9">
-        <v>1.000227070136149</v>
+        <v>0.9683137744211238</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.002718393380789</v>
+        <v>1.051096827316479</v>
       </c>
       <c r="D10">
-        <v>1.000084448564041</v>
+        <v>1.127707385772419</v>
       </c>
       <c r="E10">
-        <v>0.992880468653707</v>
+        <v>0.9135953338054856</v>
       </c>
       <c r="F10">
-        <v>1.014190172078232</v>
+        <v>0.9804052257118574</v>
       </c>
       <c r="G10">
-        <v>0.9901801920807253</v>
+        <v>0.71978468781835</v>
       </c>
       <c r="H10">
-        <v>1.000084448564041</v>
+        <v>1.127707385772419</v>
       </c>
       <c r="I10">
-        <v>1.003863286939544</v>
+        <v>1.020247048258736</v>
       </c>
       <c r="J10">
-        <v>0.9901801920807253</v>
+        <v>0.71978468781835</v>
       </c>
       <c r="K10">
-        <v>1.000084448564041</v>
+        <v>1.127707385772419</v>
       </c>
       <c r="L10">
-        <v>1.003863286939544</v>
+        <v>1.020247048258736</v>
       </c>
       <c r="M10">
-        <v>0.9970217395101344</v>
+        <v>0.870015868038543</v>
       </c>
       <c r="N10">
-        <v>0.9970217395101344</v>
+        <v>0.870015868038543</v>
       </c>
       <c r="O10">
-        <v>0.9956413158913252</v>
+        <v>0.884542356627524</v>
       </c>
       <c r="P10">
-        <v>0.9980426425281034</v>
+        <v>0.9559130406165016</v>
       </c>
       <c r="Q10">
-        <v>0.9980426425281034</v>
+        <v>0.9559130406165016</v>
       </c>
       <c r="R10">
-        <v>0.9985530940370878</v>
+        <v>0.998861626905481</v>
       </c>
       <c r="S10">
-        <v>0.9985530940370878</v>
+        <v>0.998861626905481</v>
       </c>
       <c r="T10">
-        <v>1.000652826949507</v>
+        <v>0.9688060847805545</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.004648548231202</v>
+        <v>1.007431604689494</v>
       </c>
       <c r="D11">
-        <v>1.001966131002479</v>
+        <v>1.017980253023601</v>
       </c>
       <c r="E11">
-        <v>0.9880780842588842</v>
+        <v>0.9845936065944944</v>
       </c>
       <c r="F11">
-        <v>1.021547845123535</v>
+        <v>1.005776016831752</v>
       </c>
       <c r="G11">
-        <v>0.9828083148509223</v>
+        <v>0.9687433185471953</v>
       </c>
       <c r="H11">
-        <v>1.001966131002479</v>
+        <v>1.017980253023601</v>
       </c>
       <c r="I11">
-        <v>1.005848686798134</v>
+        <v>1.00314367031883</v>
       </c>
       <c r="J11">
-        <v>0.9828083148509223</v>
+        <v>0.9687433185471953</v>
       </c>
       <c r="K11">
-        <v>1.001966131002479</v>
+        <v>1.017980253023601</v>
       </c>
       <c r="L11">
-        <v>1.005848686798134</v>
+        <v>1.00314367031883</v>
       </c>
       <c r="M11">
-        <v>0.9943285008245281</v>
+        <v>0.9859434944330125</v>
       </c>
       <c r="N11">
-        <v>0.9943285008245281</v>
+        <v>0.9859434944330125</v>
       </c>
       <c r="O11">
-        <v>0.9922450286359802</v>
+        <v>0.9854935318201732</v>
       </c>
       <c r="P11">
-        <v>0.9968743775505118</v>
+        <v>0.9966224139632086</v>
       </c>
       <c r="Q11">
-        <v>0.9968743775505118</v>
+        <v>0.9966224139632086</v>
       </c>
       <c r="R11">
-        <v>0.9981473159135036</v>
+        <v>1.001961873728307</v>
       </c>
       <c r="S11">
-        <v>0.9981473159135036</v>
+        <v>1.001961873728307</v>
       </c>
       <c r="T11">
-        <v>1.000816268377526</v>
+        <v>0.9979447450008946</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9631478332547384</v>
+        <v>1.003577789372108</v>
       </c>
       <c r="D12">
-        <v>1.127532719826262</v>
+        <v>1.008965546365576</v>
       </c>
       <c r="E12">
-        <v>1.102812605789562</v>
+        <v>0.9926550121895416</v>
       </c>
       <c r="F12">
-        <v>0.6737229380453349</v>
+        <v>1.002287655539827</v>
       </c>
       <c r="G12">
-        <v>1.08026522734354</v>
+        <v>0.9846013038464235</v>
       </c>
       <c r="H12">
-        <v>1.127532719826262</v>
+        <v>1.008965546365576</v>
       </c>
       <c r="I12">
-        <v>0.8953101273278891</v>
+        <v>1.001401121960216</v>
       </c>
       <c r="J12">
-        <v>1.08026522734354</v>
+        <v>0.9846013038464235</v>
       </c>
       <c r="K12">
-        <v>1.127532719826262</v>
+        <v>1.008965546365576</v>
       </c>
       <c r="L12">
-        <v>0.8953101273278891</v>
+        <v>1.001401121960216</v>
       </c>
       <c r="M12">
-        <v>0.9877876773357148</v>
+        <v>0.9930012129033197</v>
       </c>
       <c r="N12">
-        <v>0.9877876773357148</v>
+        <v>0.9930012129033197</v>
       </c>
       <c r="O12">
-        <v>1.026129320153664</v>
+        <v>0.9928858126653936</v>
       </c>
       <c r="P12">
-        <v>1.034369358165897</v>
+        <v>0.9983226573907386</v>
       </c>
       <c r="Q12">
-        <v>1.034369358165897</v>
+        <v>0.9983226573907383</v>
       </c>
       <c r="R12">
-        <v>1.057660198580988</v>
+        <v>1.000983379634448</v>
       </c>
       <c r="S12">
-        <v>1.057660198580988</v>
+        <v>1.000983379634448</v>
       </c>
       <c r="T12">
-        <v>0.9737985752645545</v>
+        <v>0.998914738212282</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.983081531568905</v>
+        <v>1.012283465911517</v>
       </c>
       <c r="D13">
-        <v>0.913971151953227</v>
+        <v>1.033108376859184</v>
       </c>
       <c r="E13">
-        <v>1.0278688742625</v>
+        <v>0.97503367609319</v>
       </c>
       <c r="F13">
-        <v>1.047251579162378</v>
+        <v>1.004567771139184</v>
       </c>
       <c r="G13">
-        <v>1.105869018855079</v>
+        <v>0.9468556095056639</v>
       </c>
       <c r="H13">
-        <v>0.913971151953227</v>
+        <v>1.033108376859184</v>
       </c>
       <c r="I13">
-        <v>1.011601476215179</v>
+        <v>1.003852755057188</v>
       </c>
       <c r="J13">
-        <v>1.105869018855079</v>
+        <v>0.9468556095056639</v>
       </c>
       <c r="K13">
-        <v>0.913971151953227</v>
+        <v>1.033108376859184</v>
       </c>
       <c r="L13">
-        <v>1.011601476215179</v>
+        <v>1.003852755057188</v>
       </c>
       <c r="M13">
-        <v>1.058735247535129</v>
+        <v>0.975354182281426</v>
       </c>
       <c r="N13">
-        <v>1.058735247535129</v>
+        <v>0.975354182281426</v>
       </c>
       <c r="O13">
-        <v>1.048446456444253</v>
+        <v>0.9752473468853474</v>
       </c>
       <c r="P13">
-        <v>1.010480549007829</v>
+        <v>0.994605580474012</v>
       </c>
       <c r="Q13">
-        <v>1.010480549007829</v>
+        <v>0.994605580474012</v>
       </c>
       <c r="R13">
-        <v>0.9863531997441781</v>
+        <v>1.004231279570305</v>
       </c>
       <c r="S13">
-        <v>0.9863531997441781</v>
+        <v>1.004231279570305</v>
       </c>
       <c r="T13">
-        <v>1.014940605336211</v>
+        <v>0.9959502757609879</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9609209112134006</v>
+        <v>1.018745600438998</v>
       </c>
       <c r="D14">
-        <v>1.128368443157231</v>
+        <v>1.044457302919992</v>
       </c>
       <c r="E14">
-        <v>1.100695383058844</v>
+        <v>0.9606520796632323</v>
       </c>
       <c r="F14">
-        <v>0.6880547720962833</v>
+        <v>1.01707529834926</v>
       </c>
       <c r="G14">
-        <v>1.107059991008629</v>
+        <v>0.9219699542734681</v>
       </c>
       <c r="H14">
-        <v>1.128368443157231</v>
+        <v>1.044457302919992</v>
       </c>
       <c r="I14">
-        <v>0.891306929757687</v>
+        <v>1.008360315303954</v>
       </c>
       <c r="J14">
-        <v>1.107059991008629</v>
+        <v>0.9219699542734681</v>
       </c>
       <c r="K14">
-        <v>1.128368443157231</v>
+        <v>1.044457302919992</v>
       </c>
       <c r="L14">
-        <v>0.891306929757687</v>
+        <v>1.008360315303954</v>
       </c>
       <c r="M14">
-        <v>0.9991834603831578</v>
+        <v>0.9651651347887112</v>
       </c>
       <c r="N14">
-        <v>0.9991834603831578</v>
+        <v>0.9651651347887112</v>
       </c>
       <c r="O14">
-        <v>1.03302076794172</v>
+        <v>0.9636607830802183</v>
       </c>
       <c r="P14">
-        <v>1.042245121307849</v>
+        <v>0.9915958574991381</v>
       </c>
       <c r="Q14">
-        <v>1.042245121307849</v>
+        <v>0.9915958574991381</v>
       </c>
       <c r="R14">
-        <v>1.063775951770194</v>
+        <v>1.004811218854352</v>
       </c>
       <c r="S14">
-        <v>1.063775951770194</v>
+        <v>1.004811218854352</v>
       </c>
       <c r="T14">
-        <v>0.9794010717153455</v>
+        <v>0.9952100918248176</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9845168770916293</v>
+        <v>1.006793432836524</v>
       </c>
       <c r="D15">
-        <v>0.9047903044316972</v>
+        <v>1.016574618169209</v>
       </c>
       <c r="E15">
-        <v>1.032003430596635</v>
+        <v>0.9858085759618092</v>
       </c>
       <c r="F15">
-        <v>1.04052518779118</v>
+        <v>1.005386490853267</v>
       </c>
       <c r="G15">
-        <v>1.076603690857342</v>
+        <v>0.9717770873207789</v>
       </c>
       <c r="H15">
-        <v>0.9047903044316972</v>
+        <v>1.016574618169209</v>
       </c>
       <c r="I15">
-        <v>1.017551759393651</v>
+        <v>1.002849203347194</v>
       </c>
       <c r="J15">
-        <v>1.076603690857342</v>
+        <v>0.9717770873207789</v>
       </c>
       <c r="K15">
-        <v>0.9047903044316972</v>
+        <v>1.016574618169209</v>
       </c>
       <c r="L15">
-        <v>1.017551759393651</v>
+        <v>1.002849203347194</v>
       </c>
       <c r="M15">
-        <v>1.047077725125497</v>
+        <v>0.9873131453339863</v>
       </c>
       <c r="N15">
-        <v>1.047077725125497</v>
+        <v>0.9873131453339863</v>
       </c>
       <c r="O15">
-        <v>1.042052960282543</v>
+        <v>0.9868116222099271</v>
       </c>
       <c r="P15">
-        <v>0.9996485848942301</v>
+        <v>0.9970669696123937</v>
       </c>
       <c r="Q15">
-        <v>0.9996485848942301</v>
+        <v>0.9970669696123937</v>
       </c>
       <c r="R15">
-        <v>0.9759340147785969</v>
+        <v>1.001943881751597</v>
       </c>
       <c r="S15">
-        <v>0.9759340147785969</v>
+        <v>1.001943881751597</v>
       </c>
       <c r="T15">
-        <v>1.009331875027023</v>
+        <v>0.9981982347481303</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.13032587493874</v>
+        <v>1.013102001119629</v>
       </c>
       <c r="D16">
-        <v>1.296900932914006</v>
+        <v>1.032239725709313</v>
       </c>
       <c r="E16">
-        <v>0.7256734446027426</v>
+        <v>0.9726384375701365</v>
       </c>
       <c r="F16">
-        <v>1.133449541870591</v>
+        <v>1.010205978997884</v>
       </c>
       <c r="G16">
-        <v>0.4597697795933259</v>
+        <v>0.9452826108545648</v>
       </c>
       <c r="H16">
-        <v>1.296900932914006</v>
+        <v>1.032239725709313</v>
       </c>
       <c r="I16">
-        <v>1.062996964630874</v>
+        <v>1.005381522606072</v>
       </c>
       <c r="J16">
-        <v>0.4597697795933259</v>
+        <v>0.9452826108545648</v>
       </c>
       <c r="K16">
-        <v>1.296900932914006</v>
+        <v>1.032239725709313</v>
       </c>
       <c r="L16">
-        <v>1.062996964630874</v>
+        <v>1.005381522606072</v>
       </c>
       <c r="M16">
-        <v>0.7613833721120997</v>
+        <v>0.9753320667303182</v>
       </c>
       <c r="N16">
-        <v>0.7613833721120997</v>
+        <v>0.9753320667303182</v>
       </c>
       <c r="O16">
-        <v>0.7494800629423141</v>
+        <v>0.974434190343591</v>
       </c>
       <c r="P16">
-        <v>0.939889225712735</v>
+        <v>0.9943012863899833</v>
       </c>
       <c r="Q16">
-        <v>0.939889225712735</v>
+        <v>0.9943012863899831</v>
       </c>
       <c r="R16">
-        <v>1.029142152513053</v>
+        <v>1.003785896219816</v>
       </c>
       <c r="S16">
-        <v>1.029142152513053</v>
+        <v>1.003785896219816</v>
       </c>
       <c r="T16">
-        <v>0.9681860897583796</v>
+        <v>0.9964750461429329</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.102196536391558</v>
+        <v>1.02496556420085</v>
       </c>
       <c r="D17">
-        <v>1.192427459653492</v>
+        <v>1.05954966810483</v>
       </c>
       <c r="E17">
-        <v>0.7788257866913761</v>
+        <v>0.9475881573893238</v>
       </c>
       <c r="F17">
-        <v>1.167001521655585</v>
+        <v>1.022040151818459</v>
       </c>
       <c r="G17">
-        <v>0.5857704201026028</v>
+        <v>0.8967215228985393</v>
       </c>
       <c r="H17">
-        <v>1.192427459653492</v>
+        <v>1.05954966810483</v>
       </c>
       <c r="I17">
-        <v>1.06600185035144</v>
+        <v>1.011050626327929</v>
       </c>
       <c r="J17">
-        <v>0.5857704201026028</v>
+        <v>0.8967215228985393</v>
       </c>
       <c r="K17">
-        <v>1.192427459653492</v>
+        <v>1.05954966810483</v>
       </c>
       <c r="L17">
-        <v>1.06600185035144</v>
+        <v>1.011050626327929</v>
       </c>
       <c r="M17">
-        <v>0.8258861352270216</v>
+        <v>0.9538860746132343</v>
       </c>
       <c r="N17">
-        <v>0.8258861352270216</v>
+        <v>0.9538860746132343</v>
       </c>
       <c r="O17">
-        <v>0.8101993523818064</v>
+        <v>0.9517867688719308</v>
       </c>
       <c r="P17">
-        <v>0.9480665767025117</v>
+        <v>0.9891072724437663</v>
       </c>
       <c r="Q17">
-        <v>0.9480665767025117</v>
+        <v>0.9891072724437661</v>
       </c>
       <c r="R17">
-        <v>1.009156797440257</v>
+        <v>1.006717871359032</v>
       </c>
       <c r="S17">
-        <v>1.009156797440257</v>
+        <v>1.006717871359032</v>
       </c>
       <c r="T17">
-        <v>0.9820372624743424</v>
+        <v>0.9936526151233217</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.0458814527039</v>
+        <v>1.036915489305604</v>
       </c>
       <c r="D18">
-        <v>0.985197010428433</v>
+        <v>1.086229437357458</v>
       </c>
       <c r="E18">
-        <v>0.8855155586769508</v>
+        <v>0.9226164907449184</v>
       </c>
       <c r="F18">
-        <v>1.231235181465748</v>
+        <v>1.032508140905462</v>
       </c>
       <c r="G18">
-        <v>0.8376021542340462</v>
+        <v>0.8497961956577867</v>
       </c>
       <c r="H18">
-        <v>0.985197010428433</v>
+        <v>1.086229437357458</v>
       </c>
       <c r="I18">
-        <v>1.07122415317965</v>
+        <v>1.017267310417002</v>
       </c>
       <c r="J18">
-        <v>0.8376021542340462</v>
+        <v>0.8497961956577867</v>
       </c>
       <c r="K18">
-        <v>0.985197010428433</v>
+        <v>1.086229437357458</v>
       </c>
       <c r="L18">
-        <v>1.07122415317965</v>
+        <v>1.017267310417002</v>
       </c>
       <c r="M18">
-        <v>0.954413153706848</v>
+        <v>0.9335317530373946</v>
       </c>
       <c r="N18">
-        <v>0.954413153706848</v>
+        <v>0.9335317530373946</v>
       </c>
       <c r="O18">
-        <v>0.9314472886968822</v>
+        <v>0.9298933322732358</v>
       </c>
       <c r="P18">
-        <v>0.9646744392807096</v>
+        <v>0.9844309811440825</v>
       </c>
       <c r="Q18">
-        <v>0.9646744392807096</v>
+        <v>0.9844309811440825</v>
       </c>
       <c r="R18">
-        <v>0.9698050820676405</v>
+        <v>1.009880595197426</v>
       </c>
       <c r="S18">
-        <v>0.9698050820676405</v>
+        <v>1.009880595197426</v>
       </c>
       <c r="T18">
-        <v>1.009442585114788</v>
+        <v>0.9908888440647052</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.0474424629747</v>
+        <v>1.000339207463039</v>
       </c>
       <c r="D19">
-        <v>0.9626887190334777</v>
+        <v>0.9998038016328786</v>
       </c>
       <c r="E19">
-        <v>0.8756218238762075</v>
+        <v>0.9990868890292803</v>
       </c>
       <c r="F19">
-        <v>1.281757542032794</v>
+        <v>1.002062236368194</v>
       </c>
       <c r="G19">
-        <v>0.8430875853522751</v>
+        <v>0.9988201841617398</v>
       </c>
       <c r="H19">
-        <v>0.9626887190334777</v>
+        <v>0.9998038016328786</v>
       </c>
       <c r="I19">
-        <v>1.082840599769043</v>
+        <v>1.000567968705972</v>
       </c>
       <c r="J19">
-        <v>0.8430875853522751</v>
+        <v>0.9988201841617398</v>
       </c>
       <c r="K19">
-        <v>0.9626887190334777</v>
+        <v>0.9998038016328786</v>
       </c>
       <c r="L19">
-        <v>1.082840599769043</v>
+        <v>1.000567968705972</v>
       </c>
       <c r="M19">
-        <v>0.9629640925606591</v>
+        <v>0.999694076433856</v>
       </c>
       <c r="N19">
-        <v>0.9629640925606591</v>
+        <v>0.999694076433856</v>
       </c>
       <c r="O19">
-        <v>0.9338500029991752</v>
+        <v>0.9994916806323308</v>
       </c>
       <c r="P19">
-        <v>0.962872301384932</v>
+        <v>0.9997306515001969</v>
       </c>
       <c r="Q19">
-        <v>0.9628723013849321</v>
+        <v>0.9997306515001968</v>
       </c>
       <c r="R19">
-        <v>0.9628264057970685</v>
+        <v>0.9997489390333673</v>
       </c>
       <c r="S19">
-        <v>0.9628264057970685</v>
+        <v>0.9997489390333673</v>
       </c>
       <c r="T19">
-        <v>1.015573122173083</v>
+        <v>1.000113381226851</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999321421642081</v>
+        <v>1.000887329359459</v>
       </c>
       <c r="D20">
-        <v>0.9969253212237277</v>
+        <v>0.9998128634431803</v>
       </c>
       <c r="E20">
-        <v>1.000106149297844</v>
+        <v>0.9976547886753954</v>
       </c>
       <c r="F20">
-        <v>1.002783168207454</v>
+        <v>1.004919897001366</v>
       </c>
       <c r="G20">
-        <v>1.000808211011288</v>
+        <v>0.9968441503272339</v>
       </c>
       <c r="H20">
-        <v>0.9969253212237277</v>
+        <v>0.9998128634431803</v>
       </c>
       <c r="I20">
-        <v>1.001170944375949</v>
+        <v>1.001347708827994</v>
       </c>
       <c r="J20">
-        <v>1.000808211011288</v>
+        <v>0.9968441503272339</v>
       </c>
       <c r="K20">
-        <v>0.9969253212237277</v>
+        <v>0.9998128634431803</v>
       </c>
       <c r="L20">
-        <v>1.001170944375949</v>
+        <v>1.001347708827994</v>
       </c>
       <c r="M20">
-        <v>1.000989577693618</v>
+        <v>0.9990959295776141</v>
       </c>
       <c r="N20">
-        <v>1.000989577693618</v>
+        <v>0.9990959295776141</v>
       </c>
       <c r="O20">
-        <v>1.000695101561694</v>
+        <v>0.9986155492768746</v>
       </c>
       <c r="P20">
-        <v>0.9996348255369881</v>
+        <v>0.9993349075328029</v>
       </c>
       <c r="Q20">
-        <v>0.9996348255369881</v>
+        <v>0.9993349075328029</v>
       </c>
       <c r="R20">
-        <v>0.998957449458673</v>
+        <v>0.9994543965103972</v>
       </c>
       <c r="S20">
-        <v>0.998957449458673</v>
+        <v>0.9994543965103972</v>
       </c>
       <c r="T20">
-        <v>1.000287656046745</v>
+        <v>1.000244456272438</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000492989533705</v>
+        <v>1.001302918783733</v>
       </c>
       <c r="D21">
-        <v>1.003746377644306</v>
+        <v>1.000440756587653</v>
       </c>
       <c r="E21">
-        <v>0.9987284105562606</v>
+        <v>0.9966744804280916</v>
       </c>
       <c r="F21">
-        <v>0.9991479783530509</v>
+        <v>1.006084067957125</v>
       </c>
       <c r="G21">
-        <v>0.9972633192141398</v>
+        <v>0.9951756351108433</v>
       </c>
       <c r="H21">
-        <v>1.003746377644306</v>
+        <v>1.000440756587653</v>
       </c>
       <c r="I21">
-        <v>0.9991721652816101</v>
+        <v>1.001684561949448</v>
       </c>
       <c r="J21">
-        <v>0.9972633192141398</v>
+        <v>0.9951756351108433</v>
       </c>
       <c r="K21">
-        <v>1.003746377644306</v>
+        <v>1.000440756587653</v>
       </c>
       <c r="L21">
-        <v>0.9991721652816101</v>
+        <v>1.001684561949448</v>
       </c>
       <c r="M21">
-        <v>0.998217742247875</v>
+        <v>0.9984300985301457</v>
       </c>
       <c r="N21">
-        <v>0.998217742247875</v>
+        <v>0.9984300985301457</v>
       </c>
       <c r="O21">
-        <v>0.9983879650173368</v>
+        <v>0.9978448924961277</v>
       </c>
       <c r="P21">
-        <v>1.000060620713352</v>
+        <v>0.999100317882648</v>
       </c>
       <c r="Q21">
-        <v>1.000060620713352</v>
+        <v>0.999100317882648</v>
       </c>
       <c r="R21">
-        <v>1.000982059946091</v>
+        <v>0.999435427558899</v>
       </c>
       <c r="S21">
-        <v>1.000982059946091</v>
+        <v>0.999435427558899</v>
       </c>
       <c r="T21">
-        <v>0.9997585400971789</v>
+        <v>1.000227070136149</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.001948431601162</v>
+        <v>1.002718393380789</v>
       </c>
       <c r="D22">
-        <v>0.9974523094592036</v>
+        <v>1.000084448564041</v>
       </c>
       <c r="E22">
-        <v>0.9959864048383635</v>
+        <v>0.992880468653707</v>
       </c>
       <c r="F22">
-        <v>1.007976328883873</v>
+        <v>1.014190172078232</v>
       </c>
       <c r="G22">
-        <v>0.9931543713880703</v>
+        <v>0.9901801920807253</v>
       </c>
       <c r="H22">
-        <v>0.9974523094592036</v>
+        <v>1.000084448564041</v>
       </c>
       <c r="I22">
-        <v>1.003881727754699</v>
+        <v>1.003863286939544</v>
       </c>
       <c r="J22">
-        <v>0.9931543713880703</v>
+        <v>0.9901801920807253</v>
       </c>
       <c r="K22">
-        <v>0.9974523094592036</v>
+        <v>1.000084448564041</v>
       </c>
       <c r="L22">
-        <v>1.003881727754699</v>
+        <v>1.003863286939544</v>
       </c>
       <c r="M22">
-        <v>0.9985180495713848</v>
+        <v>0.9970217395101344</v>
       </c>
       <c r="N22">
-        <v>0.9985180495713848</v>
+        <v>0.9970217395101344</v>
       </c>
       <c r="O22">
-        <v>0.997674167993711</v>
+        <v>0.9956413158913252</v>
       </c>
       <c r="P22">
-        <v>0.9981628028673244</v>
+        <v>0.9980426425281034</v>
       </c>
       <c r="Q22">
-        <v>0.9981628028673244</v>
+        <v>0.9980426425281034</v>
       </c>
       <c r="R22">
-        <v>0.9979851795152942</v>
+        <v>0.9985530940370878</v>
       </c>
       <c r="S22">
-        <v>0.9979851795152942</v>
+        <v>0.9985530940370878</v>
       </c>
       <c r="T22">
-        <v>1.000066595654229</v>
+        <v>1.000652826949507</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.004648548231202</v>
+      </c>
+      <c r="D23">
+        <v>1.001966131002479</v>
+      </c>
+      <c r="E23">
+        <v>0.9880780842588842</v>
+      </c>
+      <c r="F23">
+        <v>1.021547845123535</v>
+      </c>
+      <c r="G23">
+        <v>0.9828083148509223</v>
+      </c>
+      <c r="H23">
+        <v>1.001966131002479</v>
+      </c>
+      <c r="I23">
+        <v>1.005848686798134</v>
+      </c>
+      <c r="J23">
+        <v>0.9828083148509223</v>
+      </c>
+      <c r="K23">
+        <v>1.001966131002479</v>
+      </c>
+      <c r="L23">
+        <v>1.005848686798134</v>
+      </c>
+      <c r="M23">
+        <v>0.9943285008245281</v>
+      </c>
+      <c r="N23">
+        <v>0.9943285008245281</v>
+      </c>
+      <c r="O23">
+        <v>0.9922450286359802</v>
+      </c>
+      <c r="P23">
+        <v>0.9968743775505118</v>
+      </c>
+      <c r="Q23">
+        <v>0.9968743775505118</v>
+      </c>
+      <c r="R23">
+        <v>0.9981473159135036</v>
+      </c>
+      <c r="S23">
+        <v>0.9981473159135036</v>
+      </c>
+      <c r="T23">
+        <v>1.000816268377526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9631478332547384</v>
+      </c>
+      <c r="D24">
+        <v>1.127532719826262</v>
+      </c>
+      <c r="E24">
+        <v>1.102812605789562</v>
+      </c>
+      <c r="F24">
+        <v>0.6737229380453349</v>
+      </c>
+      <c r="G24">
+        <v>1.08026522734354</v>
+      </c>
+      <c r="H24">
+        <v>1.127532719826262</v>
+      </c>
+      <c r="I24">
+        <v>0.8953101273278891</v>
+      </c>
+      <c r="J24">
+        <v>1.08026522734354</v>
+      </c>
+      <c r="K24">
+        <v>1.127532719826262</v>
+      </c>
+      <c r="L24">
+        <v>0.8953101273278891</v>
+      </c>
+      <c r="M24">
+        <v>0.9877876773357148</v>
+      </c>
+      <c r="N24">
+        <v>0.9877876773357148</v>
+      </c>
+      <c r="O24">
+        <v>1.026129320153664</v>
+      </c>
+      <c r="P24">
+        <v>1.034369358165897</v>
+      </c>
+      <c r="Q24">
+        <v>1.034369358165897</v>
+      </c>
+      <c r="R24">
+        <v>1.057660198580988</v>
+      </c>
+      <c r="S24">
+        <v>1.057660198580988</v>
+      </c>
+      <c r="T24">
+        <v>0.9737985752645545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.983081531568905</v>
+      </c>
+      <c r="D25">
+        <v>0.913971151953227</v>
+      </c>
+      <c r="E25">
+        <v>1.0278688742625</v>
+      </c>
+      <c r="F25">
+        <v>1.047251579162378</v>
+      </c>
+      <c r="G25">
+        <v>1.105869018855079</v>
+      </c>
+      <c r="H25">
+        <v>0.913971151953227</v>
+      </c>
+      <c r="I25">
+        <v>1.011601476215179</v>
+      </c>
+      <c r="J25">
+        <v>1.105869018855079</v>
+      </c>
+      <c r="K25">
+        <v>0.913971151953227</v>
+      </c>
+      <c r="L25">
+        <v>1.011601476215179</v>
+      </c>
+      <c r="M25">
+        <v>1.058735247535129</v>
+      </c>
+      <c r="N25">
+        <v>1.058735247535129</v>
+      </c>
+      <c r="O25">
+        <v>1.048446456444253</v>
+      </c>
+      <c r="P25">
+        <v>1.010480549007829</v>
+      </c>
+      <c r="Q25">
+        <v>1.010480549007829</v>
+      </c>
+      <c r="R25">
+        <v>0.9863531997441781</v>
+      </c>
+      <c r="S25">
+        <v>0.9863531997441781</v>
+      </c>
+      <c r="T25">
+        <v>1.014940605336211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9609209112134006</v>
+      </c>
+      <c r="D26">
+        <v>1.128368443157231</v>
+      </c>
+      <c r="E26">
+        <v>1.100695383058844</v>
+      </c>
+      <c r="F26">
+        <v>0.6880547720962833</v>
+      </c>
+      <c r="G26">
+        <v>1.107059991008629</v>
+      </c>
+      <c r="H26">
+        <v>1.128368443157231</v>
+      </c>
+      <c r="I26">
+        <v>0.891306929757687</v>
+      </c>
+      <c r="J26">
+        <v>1.107059991008629</v>
+      </c>
+      <c r="K26">
+        <v>1.128368443157231</v>
+      </c>
+      <c r="L26">
+        <v>0.891306929757687</v>
+      </c>
+      <c r="M26">
+        <v>0.9991834603831578</v>
+      </c>
+      <c r="N26">
+        <v>0.9991834603831578</v>
+      </c>
+      <c r="O26">
+        <v>1.03302076794172</v>
+      </c>
+      <c r="P26">
+        <v>1.042245121307849</v>
+      </c>
+      <c r="Q26">
+        <v>1.042245121307849</v>
+      </c>
+      <c r="R26">
+        <v>1.063775951770194</v>
+      </c>
+      <c r="S26">
+        <v>1.063775951770194</v>
+      </c>
+      <c r="T26">
+        <v>0.9794010717153455</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9845168770916293</v>
+      </c>
+      <c r="D27">
+        <v>0.9047903044316972</v>
+      </c>
+      <c r="E27">
+        <v>1.032003430596635</v>
+      </c>
+      <c r="F27">
+        <v>1.04052518779118</v>
+      </c>
+      <c r="G27">
+        <v>1.076603690857342</v>
+      </c>
+      <c r="H27">
+        <v>0.9047903044316972</v>
+      </c>
+      <c r="I27">
+        <v>1.017551759393651</v>
+      </c>
+      <c r="J27">
+        <v>1.076603690857342</v>
+      </c>
+      <c r="K27">
+        <v>0.9047903044316972</v>
+      </c>
+      <c r="L27">
+        <v>1.017551759393651</v>
+      </c>
+      <c r="M27">
+        <v>1.047077725125497</v>
+      </c>
+      <c r="N27">
+        <v>1.047077725125497</v>
+      </c>
+      <c r="O27">
+        <v>1.042052960282543</v>
+      </c>
+      <c r="P27">
+        <v>0.9996485848942301</v>
+      </c>
+      <c r="Q27">
+        <v>0.9996485848942301</v>
+      </c>
+      <c r="R27">
+        <v>0.9759340147785969</v>
+      </c>
+      <c r="S27">
+        <v>0.9759340147785969</v>
+      </c>
+      <c r="T27">
+        <v>1.009331875027023</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.13032587493874</v>
+      </c>
+      <c r="D28">
+        <v>1.296900932914006</v>
+      </c>
+      <c r="E28">
+        <v>0.7256734446027426</v>
+      </c>
+      <c r="F28">
+        <v>1.133449541870591</v>
+      </c>
+      <c r="G28">
+        <v>0.4597697795933259</v>
+      </c>
+      <c r="H28">
+        <v>1.296900932914006</v>
+      </c>
+      <c r="I28">
+        <v>1.062996964630874</v>
+      </c>
+      <c r="J28">
+        <v>0.4597697795933259</v>
+      </c>
+      <c r="K28">
+        <v>1.296900932914006</v>
+      </c>
+      <c r="L28">
+        <v>1.062996964630874</v>
+      </c>
+      <c r="M28">
+        <v>0.7613833721120997</v>
+      </c>
+      <c r="N28">
+        <v>0.7613833721120997</v>
+      </c>
+      <c r="O28">
+        <v>0.7494800629423141</v>
+      </c>
+      <c r="P28">
+        <v>0.939889225712735</v>
+      </c>
+      <c r="Q28">
+        <v>0.939889225712735</v>
+      </c>
+      <c r="R28">
+        <v>1.029142152513053</v>
+      </c>
+      <c r="S28">
+        <v>1.029142152513053</v>
+      </c>
+      <c r="T28">
+        <v>0.9681860897583796</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.102196536391558</v>
+      </c>
+      <c r="D29">
+        <v>1.192427459653492</v>
+      </c>
+      <c r="E29">
+        <v>0.7788257866913761</v>
+      </c>
+      <c r="F29">
+        <v>1.167001521655585</v>
+      </c>
+      <c r="G29">
+        <v>0.5857704201026028</v>
+      </c>
+      <c r="H29">
+        <v>1.192427459653492</v>
+      </c>
+      <c r="I29">
+        <v>1.06600185035144</v>
+      </c>
+      <c r="J29">
+        <v>0.5857704201026028</v>
+      </c>
+      <c r="K29">
+        <v>1.192427459653492</v>
+      </c>
+      <c r="L29">
+        <v>1.06600185035144</v>
+      </c>
+      <c r="M29">
+        <v>0.8258861352270216</v>
+      </c>
+      <c r="N29">
+        <v>0.8258861352270216</v>
+      </c>
+      <c r="O29">
+        <v>0.8101993523818064</v>
+      </c>
+      <c r="P29">
+        <v>0.9480665767025117</v>
+      </c>
+      <c r="Q29">
+        <v>0.9480665767025117</v>
+      </c>
+      <c r="R29">
+        <v>1.009156797440257</v>
+      </c>
+      <c r="S29">
+        <v>1.009156797440257</v>
+      </c>
+      <c r="T29">
+        <v>0.9820372624743424</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.0458814527039</v>
+      </c>
+      <c r="D30">
+        <v>0.985197010428433</v>
+      </c>
+      <c r="E30">
+        <v>0.8855155586769508</v>
+      </c>
+      <c r="F30">
+        <v>1.231235181465748</v>
+      </c>
+      <c r="G30">
+        <v>0.8376021542340462</v>
+      </c>
+      <c r="H30">
+        <v>0.985197010428433</v>
+      </c>
+      <c r="I30">
+        <v>1.07122415317965</v>
+      </c>
+      <c r="J30">
+        <v>0.8376021542340462</v>
+      </c>
+      <c r="K30">
+        <v>0.985197010428433</v>
+      </c>
+      <c r="L30">
+        <v>1.07122415317965</v>
+      </c>
+      <c r="M30">
+        <v>0.954413153706848</v>
+      </c>
+      <c r="N30">
+        <v>0.954413153706848</v>
+      </c>
+      <c r="O30">
+        <v>0.9314472886968822</v>
+      </c>
+      <c r="P30">
+        <v>0.9646744392807096</v>
+      </c>
+      <c r="Q30">
+        <v>0.9646744392807096</v>
+      </c>
+      <c r="R30">
+        <v>0.9698050820676405</v>
+      </c>
+      <c r="S30">
+        <v>0.9698050820676405</v>
+      </c>
+      <c r="T30">
+        <v>1.009442585114788</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.0474424629747</v>
+      </c>
+      <c r="D31">
+        <v>0.9626887190334777</v>
+      </c>
+      <c r="E31">
+        <v>0.8756218238762075</v>
+      </c>
+      <c r="F31">
+        <v>1.281757542032794</v>
+      </c>
+      <c r="G31">
+        <v>0.8430875853522751</v>
+      </c>
+      <c r="H31">
+        <v>0.9626887190334777</v>
+      </c>
+      <c r="I31">
+        <v>1.082840599769043</v>
+      </c>
+      <c r="J31">
+        <v>0.8430875853522751</v>
+      </c>
+      <c r="K31">
+        <v>0.9626887190334777</v>
+      </c>
+      <c r="L31">
+        <v>1.082840599769043</v>
+      </c>
+      <c r="M31">
+        <v>0.9629640925606591</v>
+      </c>
+      <c r="N31">
+        <v>0.9629640925606591</v>
+      </c>
+      <c r="O31">
+        <v>0.9338500029991752</v>
+      </c>
+      <c r="P31">
+        <v>0.962872301384932</v>
+      </c>
+      <c r="Q31">
+        <v>0.9628723013849321</v>
+      </c>
+      <c r="R31">
+        <v>0.9628264057970685</v>
+      </c>
+      <c r="S31">
+        <v>0.9628264057970685</v>
+      </c>
+      <c r="T31">
+        <v>1.015573122173083</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.158590139726027</v>
+      </c>
+      <c r="D32">
+        <v>1.409250815068493</v>
+      </c>
+      <c r="E32">
+        <v>0.6717673024657536</v>
+      </c>
+      <c r="F32">
+        <v>1.094898252739726</v>
+      </c>
+      <c r="G32">
+        <v>0.3317259508219178</v>
+      </c>
+      <c r="H32">
+        <v>1.409250815068493</v>
+      </c>
+      <c r="I32">
+        <v>1.057049653561643</v>
+      </c>
+      <c r="J32">
+        <v>0.3317259508219178</v>
+      </c>
+      <c r="K32">
+        <v>1.409250815068493</v>
+      </c>
+      <c r="L32">
+        <v>1.057049653561643</v>
+      </c>
+      <c r="M32">
+        <v>0.6943878021917806</v>
+      </c>
+      <c r="N32">
+        <v>0.6943878021917806</v>
+      </c>
+      <c r="O32">
+        <v>0.6868476356164382</v>
+      </c>
+      <c r="P32">
+        <v>0.9326754731506846</v>
+      </c>
+      <c r="Q32">
+        <v>0.9326754731506846</v>
+      </c>
+      <c r="R32">
+        <v>1.051819308630137</v>
+      </c>
+      <c r="S32">
+        <v>1.051819308630137</v>
+      </c>
+      <c r="T32">
+        <v>0.95388035239726</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.039817774736842</v>
+      </c>
+      <c r="D33">
+        <v>0.8602364342105264</v>
+      </c>
+      <c r="E33">
+        <v>0.863193085263158</v>
+      </c>
+      <c r="F33">
+        <v>1.44579859</v>
+      </c>
+      <c r="G33">
+        <v>0.9472650827368422</v>
+      </c>
+      <c r="H33">
+        <v>0.8602364342105264</v>
+      </c>
+      <c r="I33">
+        <v>1.115914565263158</v>
+      </c>
+      <c r="J33">
+        <v>0.9472650827368422</v>
+      </c>
+      <c r="K33">
+        <v>0.8602364342105264</v>
+      </c>
+      <c r="L33">
+        <v>1.115914565263158</v>
+      </c>
+      <c r="M33">
+        <v>1.031589824</v>
+      </c>
+      <c r="N33">
+        <v>1.031589824</v>
+      </c>
+      <c r="O33">
+        <v>0.9754575777543861</v>
+      </c>
+      <c r="P33">
+        <v>0.9744720274035089</v>
+      </c>
+      <c r="Q33">
+        <v>0.9744720274035089</v>
+      </c>
+      <c r="R33">
+        <v>0.9459131291052634</v>
+      </c>
+      <c r="S33">
+        <v>0.9459131291052634</v>
+      </c>
+      <c r="T33">
+        <v>1.045370922035088</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.067486836842106</v>
+      </c>
+      <c r="D34">
+        <v>1.111123873157895</v>
+      </c>
+      <c r="E34">
+        <v>0.8658073421052631</v>
+      </c>
+      <c r="F34">
+        <v>1.099792848421053</v>
+      </c>
+      <c r="G34">
+        <v>0.6696977143684212</v>
+      </c>
+      <c r="H34">
+        <v>1.111123873157895</v>
+      </c>
+      <c r="I34">
+        <v>1.050630331578947</v>
+      </c>
+      <c r="J34">
+        <v>0.6696977143684212</v>
+      </c>
+      <c r="K34">
+        <v>1.111123873157895</v>
+      </c>
+      <c r="L34">
+        <v>1.050630331578947</v>
+      </c>
+      <c r="M34">
+        <v>0.8601640229736842</v>
+      </c>
+      <c r="N34">
+        <v>0.8601640229736842</v>
+      </c>
+      <c r="O34">
+        <v>0.8620451293508772</v>
+      </c>
+      <c r="P34">
+        <v>0.9438173063684211</v>
+      </c>
+      <c r="Q34">
+        <v>0.9438173063684211</v>
+      </c>
+      <c r="R34">
+        <v>0.9856439480657895</v>
+      </c>
+      <c r="S34">
+        <v>0.9856439480657895</v>
+      </c>
+      <c r="T34">
+        <v>0.9774231577456142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.16240928634911</v>
+      </c>
+      <c r="D35">
+        <v>0.8255906998404375</v>
+      </c>
+      <c r="E35">
+        <v>0.5559686122603607</v>
+      </c>
+      <c r="F35">
+        <v>2.092692731004953</v>
+      </c>
+      <c r="G35">
+        <v>0.4484093740282159</v>
+      </c>
+      <c r="H35">
+        <v>0.8255906998404375</v>
+      </c>
+      <c r="I35">
+        <v>1.30453205562243</v>
+      </c>
+      <c r="J35">
+        <v>0.4484093740282159</v>
+      </c>
+      <c r="K35">
+        <v>0.8255906998404375</v>
+      </c>
+      <c r="L35">
+        <v>1.30453205562243</v>
+      </c>
+      <c r="M35">
+        <v>0.8764707148253228</v>
+      </c>
+      <c r="N35">
+        <v>0.8764707148253228</v>
+      </c>
+      <c r="O35">
+        <v>0.7696366806370021</v>
+      </c>
+      <c r="P35">
+        <v>0.859510709830361</v>
+      </c>
+      <c r="Q35">
+        <v>0.8595107098303609</v>
+      </c>
+      <c r="R35">
+        <v>0.8510307073328801</v>
+      </c>
+      <c r="S35">
+        <v>0.8510307073328801</v>
+      </c>
+      <c r="T35">
+        <v>1.064933793184251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999321421642081</v>
+      </c>
+      <c r="D36">
+        <v>0.9969253212237277</v>
+      </c>
+      <c r="E36">
+        <v>1.000106149297844</v>
+      </c>
+      <c r="F36">
+        <v>1.002783168207454</v>
+      </c>
+      <c r="G36">
+        <v>1.000808211011288</v>
+      </c>
+      <c r="H36">
+        <v>0.9969253212237277</v>
+      </c>
+      <c r="I36">
+        <v>1.001170944375949</v>
+      </c>
+      <c r="J36">
+        <v>1.000808211011288</v>
+      </c>
+      <c r="K36">
+        <v>0.9969253212237277</v>
+      </c>
+      <c r="L36">
+        <v>1.001170944375949</v>
+      </c>
+      <c r="M36">
+        <v>1.000989577693618</v>
+      </c>
+      <c r="N36">
+        <v>1.000989577693618</v>
+      </c>
+      <c r="O36">
+        <v>1.000695101561694</v>
+      </c>
+      <c r="P36">
+        <v>0.9996348255369881</v>
+      </c>
+      <c r="Q36">
+        <v>0.9996348255369881</v>
+      </c>
+      <c r="R36">
+        <v>0.998957449458673</v>
+      </c>
+      <c r="S36">
+        <v>0.998957449458673</v>
+      </c>
+      <c r="T36">
+        <v>1.000287656046745</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000492989533705</v>
+      </c>
+      <c r="D37">
+        <v>1.003746377644306</v>
+      </c>
+      <c r="E37">
+        <v>0.9987284105562606</v>
+      </c>
+      <c r="F37">
+        <v>0.9991479783530509</v>
+      </c>
+      <c r="G37">
+        <v>0.9972633192141398</v>
+      </c>
+      <c r="H37">
+        <v>1.003746377644306</v>
+      </c>
+      <c r="I37">
+        <v>0.9991721652816101</v>
+      </c>
+      <c r="J37">
+        <v>0.9972633192141398</v>
+      </c>
+      <c r="K37">
+        <v>1.003746377644306</v>
+      </c>
+      <c r="L37">
+        <v>0.9991721652816101</v>
+      </c>
+      <c r="M37">
+        <v>0.998217742247875</v>
+      </c>
+      <c r="N37">
+        <v>0.998217742247875</v>
+      </c>
+      <c r="O37">
+        <v>0.9983879650173368</v>
+      </c>
+      <c r="P37">
+        <v>1.000060620713352</v>
+      </c>
+      <c r="Q37">
+        <v>1.000060620713352</v>
+      </c>
+      <c r="R37">
+        <v>1.000982059946091</v>
+      </c>
+      <c r="S37">
+        <v>1.000982059946091</v>
+      </c>
+      <c r="T37">
+        <v>0.9997585400971789</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.001948431601162</v>
+      </c>
+      <c r="D38">
+        <v>0.9974523094592036</v>
+      </c>
+      <c r="E38">
+        <v>0.9959864048383635</v>
+      </c>
+      <c r="F38">
+        <v>1.007976328883873</v>
+      </c>
+      <c r="G38">
+        <v>0.9931543713880703</v>
+      </c>
+      <c r="H38">
+        <v>0.9974523094592036</v>
+      </c>
+      <c r="I38">
+        <v>1.003881727754699</v>
+      </c>
+      <c r="J38">
+        <v>0.9931543713880703</v>
+      </c>
+      <c r="K38">
+        <v>0.9974523094592036</v>
+      </c>
+      <c r="L38">
+        <v>1.003881727754699</v>
+      </c>
+      <c r="M38">
+        <v>0.9985180495713848</v>
+      </c>
+      <c r="N38">
+        <v>0.9985180495713848</v>
+      </c>
+      <c r="O38">
+        <v>0.997674167993711</v>
+      </c>
+      <c r="P38">
+        <v>0.9981628028673244</v>
+      </c>
+      <c r="Q38">
+        <v>0.9981628028673244</v>
+      </c>
+      <c r="R38">
+        <v>0.9979851795152942</v>
+      </c>
+      <c r="S38">
+        <v>0.9979851795152942</v>
+      </c>
+      <c r="T38">
+        <v>1.000066595654229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.004975120878393</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9851299883489001</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9909605683113726</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.023420668772174</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9840649528537047</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9851299883489001</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.013083819112101</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9840649528537047</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9851299883489001</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.013083819112101</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9985743859829027</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9985743859829027</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9960364467590593</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9940929201049018</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9940929201049018</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9918521871659014</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9918521871659014</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000272519712774</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.019818617797573</v>
+      </c>
+      <c r="D40">
+        <v>0.9898503112760233</v>
+      </c>
+      <c r="E40">
+        <v>0.9569056122986398</v>
+      </c>
+      <c r="F40">
+        <v>1.07694413009553</v>
+      </c>
+      <c r="G40">
+        <v>0.9286850138076796</v>
+      </c>
+      <c r="H40">
+        <v>0.9898503112760233</v>
+      </c>
+      <c r="I40">
+        <v>1.032311856318247</v>
+      </c>
+      <c r="J40">
+        <v>0.9286850138076796</v>
+      </c>
+      <c r="K40">
+        <v>0.9898503112760233</v>
+      </c>
+      <c r="L40">
+        <v>1.032311856318247</v>
+      </c>
+      <c r="M40">
+        <v>0.9804984350629632</v>
+      </c>
+      <c r="N40">
+        <v>0.9804984350629632</v>
+      </c>
+      <c r="O40">
+        <v>0.9726341608081888</v>
+      </c>
+      <c r="P40">
+        <v>0.9836157271339833</v>
+      </c>
+      <c r="Q40">
+        <v>0.9836157271339833</v>
+      </c>
+      <c r="R40">
+        <v>0.9851743731694933</v>
+      </c>
+      <c r="S40">
+        <v>0.9851743731694933</v>
+      </c>
+      <c r="T40">
+        <v>1.000752590265615</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9901486711772509</v>
+      </c>
+      <c r="D41">
+        <v>1.006888468980511</v>
+      </c>
+      <c r="E41">
+        <v>1.025370449161644</v>
+      </c>
+      <c r="F41">
+        <v>0.9450177844442742</v>
+      </c>
+      <c r="G41">
+        <v>1.030430695111796</v>
+      </c>
+      <c r="H41">
+        <v>1.006888468980511</v>
+      </c>
+      <c r="I41">
+        <v>0.98327033765851</v>
+      </c>
+      <c r="J41">
+        <v>1.030430695111796</v>
+      </c>
+      <c r="K41">
+        <v>1.006888468980511</v>
+      </c>
+      <c r="L41">
+        <v>0.98327033765851</v>
+      </c>
+      <c r="M41">
+        <v>1.006850516385153</v>
+      </c>
+      <c r="N41">
+        <v>1.006850516385153</v>
+      </c>
+      <c r="O41">
+        <v>1.01302382731065</v>
+      </c>
+      <c r="P41">
+        <v>1.006863167250272</v>
+      </c>
+      <c r="Q41">
+        <v>1.006863167250273</v>
+      </c>
+      <c r="R41">
+        <v>1.006869492682832</v>
+      </c>
+      <c r="S41">
+        <v>1.006869492682832</v>
+      </c>
+      <c r="T41">
+        <v>0.9968544010889978</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.08276952250044</v>
+      </c>
+      <c r="D42">
+        <v>1.14814864326544</v>
+      </c>
+      <c r="E42">
+        <v>0.8257280618902814</v>
+      </c>
+      <c r="F42">
+        <v>1.129657593874913</v>
+      </c>
+      <c r="G42">
+        <v>0.6509207036215287</v>
+      </c>
+      <c r="H42">
+        <v>1.14814864326544</v>
+      </c>
+      <c r="I42">
+        <v>1.05585713479982</v>
+      </c>
+      <c r="J42">
+        <v>0.6509207036215287</v>
+      </c>
+      <c r="K42">
+        <v>1.14814864326544</v>
+      </c>
+      <c r="L42">
+        <v>1.05585713479982</v>
+      </c>
+      <c r="M42">
+        <v>0.8533889192106745</v>
+      </c>
+      <c r="N42">
+        <v>0.8533889192106745</v>
+      </c>
+      <c r="O42">
+        <v>0.84416863343721</v>
+      </c>
+      <c r="P42">
+        <v>0.9516421605622628</v>
+      </c>
+      <c r="Q42">
+        <v>0.951642160562263</v>
+      </c>
+      <c r="R42">
+        <v>1.000768781238057</v>
+      </c>
+      <c r="S42">
+        <v>1.000768781238057</v>
+      </c>
+      <c r="T42">
+        <v>0.9821802766587372</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW20.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,43 +85,40 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.016574618169209</v>
+        <v>1.000887329359459</v>
       </c>
       <c r="D3">
-        <v>0.9717770873207789</v>
+        <v>0.9998128634431803</v>
       </c>
       <c r="E3">
-        <v>1.002849203347194</v>
+        <v>0.9976547886753954</v>
       </c>
       <c r="F3">
-        <v>1.016574618169209</v>
+        <v>1.004919897001366</v>
       </c>
       <c r="G3">
-        <v>1.005386490853267</v>
+        <v>0.9968441503272339</v>
       </c>
       <c r="H3">
-        <v>0.9858085759618092</v>
+        <v>0.9998128634431803</v>
       </c>
       <c r="I3">
-        <v>1.006793432836524</v>
+        <v>1.001347708827994</v>
       </c>
       <c r="J3">
-        <v>0.9717770873207789</v>
+        <v>0.9968441503272339</v>
       </c>
       <c r="K3">
-        <v>1.016574618169209</v>
+        <v>0.9998128634431803</v>
       </c>
       <c r="L3">
-        <v>1.002849203347194</v>
+        <v>1.001347708827994</v>
       </c>
       <c r="M3">
-        <v>0.9873131453339863</v>
+        <v>0.9990959295776141</v>
       </c>
       <c r="N3">
-        <v>0.9873131453339863</v>
+        <v>0.9990959295776141</v>
       </c>
       <c r="O3">
-        <v>0.9868116222099271</v>
+        <v>0.9986155492768746</v>
       </c>
       <c r="P3">
-        <v>0.9970669696123937</v>
+        <v>0.9993349075328029</v>
       </c>
       <c r="Q3">
-        <v>0.9970669696123937</v>
+        <v>0.9993349075328029</v>
       </c>
       <c r="R3">
-        <v>1.001943881751597</v>
+        <v>0.9994543965103972</v>
       </c>
       <c r="S3">
-        <v>1.001943881751597</v>
+        <v>0.9994543965103972</v>
       </c>
       <c r="T3">
-        <v>0.9981982347481303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000244456272438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.032239725709313</v>
+        <v>1.019818617797573</v>
       </c>
       <c r="D4">
-        <v>0.9452826108545648</v>
+        <v>0.9898503112760233</v>
       </c>
       <c r="E4">
-        <v>1.005381522606072</v>
+        <v>0.9569056122986398</v>
       </c>
       <c r="F4">
-        <v>1.032239725709313</v>
+        <v>1.07694413009553</v>
       </c>
       <c r="G4">
-        <v>1.010205978997884</v>
+        <v>0.9286850138076796</v>
       </c>
       <c r="H4">
-        <v>0.9726384375701365</v>
+        <v>0.9898503112760233</v>
       </c>
       <c r="I4">
-        <v>1.013102001119629</v>
+        <v>1.032311856318247</v>
       </c>
       <c r="J4">
-        <v>0.9452826108545648</v>
+        <v>0.9286850138076796</v>
       </c>
       <c r="K4">
-        <v>1.032239725709313</v>
+        <v>0.9898503112760233</v>
       </c>
       <c r="L4">
-        <v>1.005381522606072</v>
+        <v>1.032311856318247</v>
       </c>
       <c r="M4">
-        <v>0.9753320667303182</v>
+        <v>0.9804984350629632</v>
       </c>
       <c r="N4">
-        <v>0.9753320667303182</v>
+        <v>0.9804984350629632</v>
       </c>
       <c r="O4">
-        <v>0.974434190343591</v>
+        <v>0.9726341608081888</v>
       </c>
       <c r="P4">
-        <v>0.9943012863899833</v>
+        <v>0.9836157271339833</v>
       </c>
       <c r="Q4">
-        <v>0.9943012863899831</v>
+        <v>0.9836157271339833</v>
       </c>
       <c r="R4">
-        <v>1.003785896219816</v>
+        <v>0.9851743731694933</v>
       </c>
       <c r="S4">
-        <v>1.003785896219816</v>
+        <v>0.9851743731694933</v>
       </c>
       <c r="T4">
-        <v>0.9964750461429329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.000752590265615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.05954966810483</v>
+        <v>1.054282889553313</v>
       </c>
       <c r="D5">
-        <v>0.8967215228985393</v>
+        <v>0.9862551054034612</v>
       </c>
       <c r="E5">
-        <v>1.011050626327929</v>
+        <v>0.8644370523487006</v>
       </c>
       <c r="F5">
-        <v>1.05954966810483</v>
+        <v>1.270964248170029</v>
       </c>
       <c r="G5">
-        <v>1.022040151818459</v>
+        <v>0.8058706541188749</v>
       </c>
       <c r="H5">
-        <v>0.9475881573893238</v>
+        <v>0.9862551054034612</v>
       </c>
       <c r="I5">
-        <v>1.02496556420085</v>
+        <v>1.082828135893373</v>
       </c>
       <c r="J5">
-        <v>0.8967215228985393</v>
+        <v>0.8058706541188749</v>
       </c>
       <c r="K5">
-        <v>1.05954966810483</v>
+        <v>0.9862551054034612</v>
       </c>
       <c r="L5">
-        <v>1.011050626327929</v>
+        <v>1.082828135893373</v>
       </c>
       <c r="M5">
-        <v>0.9538860746132343</v>
+        <v>0.9443493950061239</v>
       </c>
       <c r="N5">
-        <v>0.9538860746132343</v>
+        <v>0.9443493950061239</v>
       </c>
       <c r="O5">
-        <v>0.9517867688719308</v>
+        <v>0.9177119474536495</v>
       </c>
       <c r="P5">
-        <v>0.9891072724437663</v>
+        <v>0.9583179651385697</v>
       </c>
       <c r="Q5">
-        <v>0.9891072724437661</v>
+        <v>0.9583179651385697</v>
       </c>
       <c r="R5">
-        <v>1.006717871359032</v>
+        <v>0.9653022502047925</v>
       </c>
       <c r="S5">
-        <v>1.006717871359032</v>
+        <v>0.9653022502047925</v>
       </c>
       <c r="T5">
-        <v>0.9936526151233217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.010773014247959</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.086229437357458</v>
+        <v>1.16240928634911</v>
       </c>
       <c r="D6">
-        <v>0.8497961956577867</v>
+        <v>0.8255906998404375</v>
       </c>
       <c r="E6">
-        <v>1.017267310417003</v>
+        <v>0.5559686122603607</v>
       </c>
       <c r="F6">
-        <v>1.086229437357458</v>
+        <v>2.092692731004953</v>
       </c>
       <c r="G6">
-        <v>1.032508140905462</v>
+        <v>0.4484093740282159</v>
       </c>
       <c r="H6">
-        <v>0.9226164907449184</v>
+        <v>0.8255906998404375</v>
       </c>
       <c r="I6">
-        <v>1.036915489305604</v>
+        <v>1.30453205562243</v>
       </c>
       <c r="J6">
-        <v>0.8497961956577867</v>
+        <v>0.4484093740282159</v>
       </c>
       <c r="K6">
-        <v>1.086229437357458</v>
+        <v>0.8255906998404375</v>
       </c>
       <c r="L6">
-        <v>1.017267310417003</v>
+        <v>1.30453205562243</v>
       </c>
       <c r="M6">
-        <v>0.9335317530373948</v>
+        <v>0.8764707148253228</v>
       </c>
       <c r="N6">
-        <v>0.9335317530373948</v>
+        <v>0.8764707148253228</v>
       </c>
       <c r="O6">
-        <v>0.929893332273236</v>
+        <v>0.7696366806370021</v>
       </c>
       <c r="P6">
-        <v>0.9844309811440826</v>
+        <v>0.859510709830361</v>
       </c>
       <c r="Q6">
-        <v>0.9844309811440826</v>
+        <v>0.8595107098303609</v>
       </c>
       <c r="R6">
-        <v>1.009880595197426</v>
+        <v>0.8510307073328801</v>
       </c>
       <c r="S6">
-        <v>1.009880595197426</v>
+        <v>0.8510307073328801</v>
       </c>
       <c r="T6">
-        <v>0.9908888440647053</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.064933793184251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9998038016328786</v>
+        <v>1.007431604689494</v>
       </c>
       <c r="D7">
-        <v>0.9988201841617398</v>
+        <v>1.017980253023601</v>
       </c>
       <c r="E7">
-        <v>1.000567968705972</v>
+        <v>0.9845936065944944</v>
       </c>
       <c r="F7">
-        <v>0.9998038016328786</v>
+        <v>1.005776016831752</v>
       </c>
       <c r="G7">
-        <v>1.002062236368194</v>
+        <v>0.9687433185471953</v>
       </c>
       <c r="H7">
-        <v>0.9990868890292803</v>
+        <v>1.017980253023601</v>
       </c>
       <c r="I7">
-        <v>1.000339207463039</v>
+        <v>1.00314367031883</v>
       </c>
       <c r="J7">
-        <v>0.9988201841617398</v>
+        <v>0.9687433185471953</v>
       </c>
       <c r="K7">
-        <v>0.9998038016328786</v>
+        <v>1.017980253023601</v>
       </c>
       <c r="L7">
-        <v>1.000567968705972</v>
+        <v>1.00314367031883</v>
       </c>
       <c r="M7">
-        <v>0.999694076433856</v>
+        <v>0.9859434944330125</v>
       </c>
       <c r="N7">
-        <v>0.999694076433856</v>
+        <v>0.9859434944330125</v>
       </c>
       <c r="O7">
-        <v>0.9994916806323308</v>
+        <v>0.9854935318201732</v>
       </c>
       <c r="P7">
-        <v>0.9997306515001969</v>
+        <v>0.9966224139632086</v>
       </c>
       <c r="Q7">
-        <v>0.9997306515001968</v>
+        <v>0.9966224139632086</v>
       </c>
       <c r="R7">
-        <v>0.9997489390333673</v>
+        <v>1.001961873728307</v>
       </c>
       <c r="S7">
-        <v>0.9997489390333673</v>
+        <v>1.001961873728307</v>
       </c>
       <c r="T7">
-        <v>1.000113381226851</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9979447450008946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.99981286344318</v>
+        <v>1.000492989533705</v>
       </c>
       <c r="D8">
-        <v>0.9968441503272339</v>
+        <v>1.003746377644306</v>
       </c>
       <c r="E8">
-        <v>1.001347708827994</v>
+        <v>0.9987284105562606</v>
       </c>
       <c r="F8">
-        <v>0.99981286344318</v>
+        <v>0.9991479783530509</v>
       </c>
       <c r="G8">
-        <v>1.004919897001366</v>
+        <v>0.9972633192141398</v>
       </c>
       <c r="H8">
-        <v>0.9976547886753957</v>
+        <v>1.003746377644306</v>
       </c>
       <c r="I8">
-        <v>1.000887329359459</v>
+        <v>0.9991721652816101</v>
       </c>
       <c r="J8">
-        <v>0.9968441503272339</v>
+        <v>0.9972633192141398</v>
       </c>
       <c r="K8">
-        <v>0.99981286344318</v>
+        <v>1.003746377644306</v>
       </c>
       <c r="L8">
-        <v>1.001347708827994</v>
+        <v>0.9991721652816101</v>
       </c>
       <c r="M8">
-        <v>0.9990959295776141</v>
+        <v>0.998217742247875</v>
       </c>
       <c r="N8">
-        <v>0.9990959295776141</v>
+        <v>0.998217742247875</v>
       </c>
       <c r="O8">
-        <v>0.9986155492768747</v>
+        <v>0.9983879650173368</v>
       </c>
       <c r="P8">
-        <v>0.9993349075328027</v>
+        <v>1.000060620713352</v>
       </c>
       <c r="Q8">
-        <v>0.9993349075328027</v>
+        <v>1.000060620713352</v>
       </c>
       <c r="R8">
-        <v>0.999454396510397</v>
+        <v>1.000982059946091</v>
       </c>
       <c r="S8">
-        <v>0.999454396510397</v>
+        <v>1.000982059946091</v>
       </c>
       <c r="T8">
-        <v>1.000244456272438</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9997585400971789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000440756587653</v>
+        <v>1.013102001119629</v>
       </c>
       <c r="D9">
-        <v>0.9951756351108433</v>
+        <v>1.032239725709313</v>
       </c>
       <c r="E9">
-        <v>1.001684561949448</v>
+        <v>0.9726384375701365</v>
       </c>
       <c r="F9">
-        <v>1.000440756587653</v>
+        <v>1.010205978997884</v>
       </c>
       <c r="G9">
-        <v>1.006084067957125</v>
+        <v>0.9452826108545648</v>
       </c>
       <c r="H9">
-        <v>0.9966744804280916</v>
+        <v>1.032239725709313</v>
       </c>
       <c r="I9">
-        <v>1.001302918783733</v>
+        <v>1.005381522606072</v>
       </c>
       <c r="J9">
-        <v>0.9951756351108433</v>
+        <v>0.9452826108545648</v>
       </c>
       <c r="K9">
-        <v>1.000440756587653</v>
+        <v>1.032239725709313</v>
       </c>
       <c r="L9">
-        <v>1.001684561949448</v>
+        <v>1.005381522606072</v>
       </c>
       <c r="M9">
-        <v>0.9984300985301457</v>
+        <v>0.9753320667303182</v>
       </c>
       <c r="N9">
-        <v>0.9984300985301457</v>
+        <v>0.9753320667303182</v>
       </c>
       <c r="O9">
-        <v>0.9978448924961277</v>
+        <v>0.974434190343591</v>
       </c>
       <c r="P9">
-        <v>0.999100317882648</v>
+        <v>0.9943012863899833</v>
       </c>
       <c r="Q9">
-        <v>0.999100317882648</v>
+        <v>0.9943012863899831</v>
       </c>
       <c r="R9">
-        <v>0.999435427558899</v>
+        <v>1.003785896219816</v>
       </c>
       <c r="S9">
-        <v>0.999435427558899</v>
+        <v>1.003785896219816</v>
       </c>
       <c r="T9">
-        <v>1.000227070136149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9964750461429329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000084448564041</v>
+        <v>1.164004876635732</v>
       </c>
       <c r="D10">
-        <v>0.9901801920807253</v>
+        <v>0.8177350500345411</v>
       </c>
       <c r="E10">
-        <v>1.003863286939544</v>
+        <v>0.5493015964010177</v>
       </c>
       <c r="F10">
-        <v>1.000084448564041</v>
+        <v>2.117425567662383</v>
       </c>
       <c r="G10">
-        <v>1.014190172078232</v>
+        <v>0.4474640094510445</v>
       </c>
       <c r="H10">
-        <v>0.992880468653707</v>
+        <v>0.8177350500345411</v>
       </c>
       <c r="I10">
-        <v>1.002718393380789</v>
+        <v>1.310085842996553</v>
       </c>
       <c r="J10">
-        <v>0.9901801920807253</v>
+        <v>0.4474640094510445</v>
       </c>
       <c r="K10">
-        <v>1.000084448564041</v>
+        <v>0.8177350500345411</v>
       </c>
       <c r="L10">
-        <v>1.003863286939544</v>
+        <v>1.310085842996553</v>
       </c>
       <c r="M10">
-        <v>0.9970217395101344</v>
+        <v>0.8787749262237987</v>
       </c>
       <c r="N10">
-        <v>0.9970217395101344</v>
+        <v>0.8787749262237987</v>
       </c>
       <c r="O10">
-        <v>0.9956413158913252</v>
+        <v>0.7689504829495384</v>
       </c>
       <c r="P10">
-        <v>0.9980426425281035</v>
+        <v>0.8584283008273795</v>
       </c>
       <c r="Q10">
-        <v>0.9980426425281035</v>
+        <v>0.8584283008273795</v>
       </c>
       <c r="R10">
-        <v>0.9985530940370879</v>
+        <v>0.8482549881291699</v>
       </c>
       <c r="S10">
-        <v>0.9985530940370879</v>
+        <v>0.8482549881291699</v>
       </c>
       <c r="T10">
-        <v>1.000652826949507</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.067669490530212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001966131002479</v>
+        <v>1.022887616627335</v>
       </c>
       <c r="D11">
-        <v>0.9828083148509223</v>
+        <v>1.028737002955082</v>
       </c>
       <c r="E11">
-        <v>1.005848686798134</v>
+        <v>0.9582116434574156</v>
       </c>
       <c r="F11">
-        <v>1.001966131002479</v>
+        <v>1.022421162284288</v>
       </c>
       <c r="G11">
-        <v>1.021547845123535</v>
+        <v>0.899601506187661</v>
       </c>
       <c r="H11">
-        <v>0.9880780842588842</v>
+        <v>1.028737002955082</v>
       </c>
       <c r="I11">
-        <v>1.004648548231202</v>
+        <v>1.020472158429636</v>
       </c>
       <c r="J11">
-        <v>0.9828083148509223</v>
+        <v>0.899601506187661</v>
       </c>
       <c r="K11">
-        <v>1.001966131002479</v>
+        <v>1.028737002955082</v>
       </c>
       <c r="L11">
-        <v>1.005848686798134</v>
+        <v>1.020472158429636</v>
       </c>
       <c r="M11">
-        <v>0.9943285008245281</v>
+        <v>0.9600368323086484</v>
       </c>
       <c r="N11">
-        <v>0.9943285008245281</v>
+        <v>0.9600368323086484</v>
       </c>
       <c r="O11">
-        <v>0.9922450286359802</v>
+        <v>0.9594284360249041</v>
       </c>
       <c r="P11">
-        <v>0.9968743775505118</v>
+        <v>0.9829368891907929</v>
       </c>
       <c r="Q11">
-        <v>0.9968743775505118</v>
+        <v>0.9829368891907929</v>
       </c>
       <c r="R11">
-        <v>0.9981473159135036</v>
+        <v>0.994386917631865</v>
       </c>
       <c r="S11">
-        <v>0.9981473159135036</v>
+        <v>0.994386917631865</v>
       </c>
       <c r="T11">
-        <v>1.000816268377526</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9920551816569029</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.127532719826262</v>
+        <v>1.050792699199997</v>
       </c>
       <c r="D12">
-        <v>1.08026522734354</v>
+        <v>0.9418745603157909</v>
       </c>
       <c r="E12">
-        <v>0.8953101273278892</v>
+        <v>0.8631943522421034</v>
       </c>
       <c r="F12">
-        <v>1.127532719826262</v>
+        <v>1.333047907557898</v>
       </c>
       <c r="G12">
-        <v>0.6737229380453352</v>
+        <v>0.8367297343968423</v>
       </c>
       <c r="H12">
-        <v>1.102812605789562</v>
+        <v>0.9418745603157909</v>
       </c>
       <c r="I12">
-        <v>0.9631478332547384</v>
+        <v>1.096372424610526</v>
       </c>
       <c r="J12">
-        <v>1.08026522734354</v>
+        <v>0.8367297343968423</v>
       </c>
       <c r="K12">
-        <v>1.127532719826262</v>
+        <v>0.9418745603157909</v>
       </c>
       <c r="L12">
-        <v>0.8953101273278892</v>
+        <v>1.096372424610526</v>
       </c>
       <c r="M12">
-        <v>0.9877876773357146</v>
+        <v>0.9665510795036841</v>
       </c>
       <c r="N12">
-        <v>0.9877876773357146</v>
+        <v>0.9665510795036841</v>
       </c>
       <c r="O12">
-        <v>1.026129320153664</v>
+        <v>0.9320988370831572</v>
       </c>
       <c r="P12">
-        <v>1.034369358165897</v>
+        <v>0.9583255731077197</v>
       </c>
       <c r="Q12">
-        <v>1.034369358165897</v>
+        <v>0.9583255731077197</v>
       </c>
       <c r="R12">
-        <v>1.057660198580988</v>
+        <v>0.9542128199097375</v>
       </c>
       <c r="S12">
-        <v>1.057660198580988</v>
+        <v>0.9542128199097375</v>
       </c>
       <c r="T12">
-        <v>0.9737985752645545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.020335279720526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.913971151953227</v>
+        <v>0.9577159820819982</v>
       </c>
       <c r="D13">
-        <v>1.105869018855079</v>
+        <v>0.9748616563672092</v>
       </c>
       <c r="E13">
-        <v>1.011601476215179</v>
+        <v>1.091388007380469</v>
       </c>
       <c r="F13">
-        <v>0.913971151953227</v>
+        <v>0.8749422255286314</v>
       </c>
       <c r="G13">
-        <v>1.047251579162378</v>
+        <v>1.174299101618901</v>
       </c>
       <c r="H13">
-        <v>1.0278688742625</v>
+        <v>0.9748616563672092</v>
       </c>
       <c r="I13">
-        <v>0.983081531568905</v>
+        <v>0.9505850949382995</v>
       </c>
       <c r="J13">
-        <v>1.105869018855079</v>
+        <v>1.174299101618901</v>
       </c>
       <c r="K13">
-        <v>0.913971151953227</v>
+        <v>0.9748616563672092</v>
       </c>
       <c r="L13">
-        <v>1.011601476215179</v>
+        <v>0.9505850949382995</v>
       </c>
       <c r="M13">
-        <v>1.058735247535129</v>
+        <v>1.0624420982786</v>
       </c>
       <c r="N13">
-        <v>1.058735247535129</v>
+        <v>1.0624420982786</v>
       </c>
       <c r="O13">
-        <v>1.048446456444253</v>
+        <v>1.07209073464589</v>
       </c>
       <c r="P13">
-        <v>1.010480549007829</v>
+        <v>1.03324861764147</v>
       </c>
       <c r="Q13">
-        <v>1.010480549007829</v>
+        <v>1.03324861764147</v>
       </c>
       <c r="R13">
-        <v>0.9863531997441781</v>
+        <v>1.018651877322905</v>
       </c>
       <c r="S13">
-        <v>0.9863531997441781</v>
+        <v>1.018651877322905</v>
       </c>
       <c r="T13">
-        <v>1.014940605336211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.003965344652584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.128368443157231</v>
+        <v>1.280074200000001</v>
       </c>
       <c r="D14">
-        <v>1.107059991008628</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="E14">
-        <v>0.891306929757687</v>
+        <v>0.2238942000000001</v>
       </c>
       <c r="F14">
-        <v>1.128368443157231</v>
+        <v>2.955281000000005</v>
       </c>
       <c r="G14">
-        <v>0.6880547720962834</v>
+        <v>0.05435712199999995</v>
       </c>
       <c r="H14">
-        <v>1.100695383058844</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="I14">
-        <v>0.9609209112134006</v>
+        <v>1.538146999999998</v>
       </c>
       <c r="J14">
-        <v>1.107059991008628</v>
+        <v>0.05435712199999995</v>
       </c>
       <c r="K14">
-        <v>1.128368443157231</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="L14">
-        <v>0.891306929757687</v>
+        <v>1.538146999999998</v>
       </c>
       <c r="M14">
-        <v>0.9991834603831576</v>
+        <v>0.7962520609999991</v>
       </c>
       <c r="N14">
-        <v>0.9991834603831576</v>
+        <v>0.7962520609999991</v>
       </c>
       <c r="O14">
-        <v>1.03302076794172</v>
+        <v>0.6054661073333328</v>
       </c>
       <c r="P14">
-        <v>1.042245121307849</v>
+        <v>0.7539044373333322</v>
       </c>
       <c r="Q14">
-        <v>1.042245121307849</v>
+        <v>0.7539044373333325</v>
       </c>
       <c r="R14">
-        <v>1.063775951770194</v>
+        <v>0.732730625499999</v>
       </c>
       <c r="S14">
-        <v>1.063775951770194</v>
+        <v>0.732730625499999</v>
       </c>
       <c r="T14">
-        <v>0.9794010717153454</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.120160452000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9047903044316972</v>
+        <v>1.1585466</v>
       </c>
       <c r="D15">
-        <v>1.076603690857342</v>
+        <v>1.9813918</v>
       </c>
       <c r="E15">
-        <v>1.017551759393651</v>
+        <v>0.6454245799999999</v>
       </c>
       <c r="F15">
-        <v>0.9047903044316972</v>
+        <v>0.66920919</v>
       </c>
       <c r="G15">
-        <v>1.04052518779118</v>
+        <v>0.21885897</v>
       </c>
       <c r="H15">
-        <v>1.032003430596635</v>
+        <v>1.9813918</v>
       </c>
       <c r="I15">
-        <v>0.9845168770916294</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="J15">
-        <v>1.076603690857342</v>
+        <v>0.21885897</v>
       </c>
       <c r="K15">
-        <v>0.9047903044316972</v>
+        <v>1.9813918</v>
       </c>
       <c r="L15">
-        <v>1.017551759393651</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="M15">
-        <v>1.047077725125496</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="N15">
-        <v>1.047077725125496</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="O15">
-        <v>1.042052960282543</v>
+        <v>0.5644207333333333</v>
       </c>
       <c r="P15">
-        <v>0.9996485848942299</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q15">
-        <v>0.99964858489423</v>
+        <v>1.00974314</v>
       </c>
       <c r="R15">
-        <v>0.9759340147785969</v>
+        <v>1.252655305</v>
       </c>
       <c r="S15">
-        <v>0.9759340147785969</v>
+        <v>1.252655305</v>
       </c>
       <c r="T15">
-        <v>1.009331875027023</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9170682983333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9969253212237277</v>
+        <v>1.1562914</v>
       </c>
       <c r="D16">
-        <v>1.000808211011288</v>
+        <v>0.8289779500000001</v>
       </c>
       <c r="E16">
-        <v>1.001170944375948</v>
+        <v>0.69561173</v>
       </c>
       <c r="F16">
-        <v>0.9969253212237277</v>
+        <v>1.5381067</v>
       </c>
       <c r="G16">
-        <v>1.002783168207454</v>
+        <v>0.44911069</v>
       </c>
       <c r="H16">
-        <v>1.000106149297844</v>
+        <v>0.8289779500000001</v>
       </c>
       <c r="I16">
-        <v>0.9999321421642081</v>
+        <v>1.2942026</v>
       </c>
       <c r="J16">
-        <v>1.000808211011288</v>
+        <v>0.44911069</v>
       </c>
       <c r="K16">
-        <v>0.9969253212237277</v>
+        <v>0.8289779500000001</v>
       </c>
       <c r="L16">
-        <v>1.001170944375948</v>
+        <v>1.2942026</v>
       </c>
       <c r="M16">
-        <v>1.000989577693618</v>
+        <v>0.8716566449999998</v>
       </c>
       <c r="N16">
-        <v>1.000989577693618</v>
+        <v>0.8716566449999998</v>
       </c>
       <c r="O16">
-        <v>1.000695101561694</v>
+        <v>0.8129750066666666</v>
       </c>
       <c r="P16">
-        <v>0.9996348255369881</v>
+        <v>0.8574304133333333</v>
       </c>
       <c r="Q16">
-        <v>0.9996348255369881</v>
+        <v>0.8574304133333333</v>
       </c>
       <c r="R16">
-        <v>0.998957449458673</v>
+        <v>0.8503172975</v>
       </c>
       <c r="S16">
-        <v>0.998957449458673</v>
+        <v>0.8503172975</v>
       </c>
       <c r="T16">
-        <v>1.000287656046745</v>
+        <v>0.9937168449999999</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.003746377644306</v>
+        <v>0.83983323</v>
       </c>
       <c r="D17">
-        <v>0.9972633192141398</v>
+        <v>0.56029458</v>
       </c>
       <c r="E17">
-        <v>0.9991721652816099</v>
+        <v>1.2294101</v>
       </c>
       <c r="F17">
-        <v>1.003746377644306</v>
+        <v>1.2565152</v>
       </c>
       <c r="G17">
-        <v>0.9991479783530505</v>
+        <v>1.9240721</v>
       </c>
       <c r="H17">
-        <v>0.9987284105562606</v>
+        <v>0.56029458</v>
       </c>
       <c r="I17">
-        <v>1.000492989533705</v>
+        <v>0.9546359199999999</v>
       </c>
       <c r="J17">
-        <v>0.9972633192141398</v>
+        <v>1.9240721</v>
       </c>
       <c r="K17">
-        <v>1.003746377644306</v>
+        <v>0.56029458</v>
       </c>
       <c r="L17">
-        <v>0.9991721652816099</v>
+        <v>0.9546359199999999</v>
       </c>
       <c r="M17">
-        <v>0.9982177422478749</v>
+        <v>1.43935401</v>
       </c>
       <c r="N17">
-        <v>0.9982177422478749</v>
+        <v>1.43935401</v>
       </c>
       <c r="O17">
-        <v>0.9983879650173367</v>
+        <v>1.369372706666667</v>
       </c>
       <c r="P17">
-        <v>1.000060620713352</v>
+        <v>1.1463342</v>
       </c>
       <c r="Q17">
-        <v>1.000060620713352</v>
+        <v>1.1463342</v>
       </c>
       <c r="R17">
-        <v>1.000982059946091</v>
+        <v>0.999824295</v>
       </c>
       <c r="S17">
-        <v>1.000982059946091</v>
+        <v>0.999824295</v>
       </c>
       <c r="T17">
-        <v>0.9997585400971788</v>
+        <v>1.127460188333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9974523094592036</v>
+        <v>1.158590139726027</v>
       </c>
       <c r="D18">
-        <v>0.9931543713880705</v>
+        <v>1.409250815068493</v>
       </c>
       <c r="E18">
-        <v>1.0038817277547</v>
+        <v>0.6717673024657536</v>
       </c>
       <c r="F18">
-        <v>0.9974523094592036</v>
+        <v>1.094898252739726</v>
       </c>
       <c r="G18">
-        <v>1.007976328883872</v>
+        <v>0.3317259508219178</v>
       </c>
       <c r="H18">
-        <v>0.9959864048383635</v>
+        <v>1.409250815068493</v>
       </c>
       <c r="I18">
-        <v>1.001948431601162</v>
+        <v>1.057049653561643</v>
       </c>
       <c r="J18">
-        <v>0.9931543713880705</v>
+        <v>0.3317259508219178</v>
       </c>
       <c r="K18">
-        <v>0.9974523094592036</v>
+        <v>1.409250815068493</v>
       </c>
       <c r="L18">
-        <v>1.0038817277547</v>
+        <v>1.057049653561643</v>
       </c>
       <c r="M18">
-        <v>0.998518049571385</v>
+        <v>0.6943878021917806</v>
       </c>
       <c r="N18">
-        <v>0.998518049571385</v>
+        <v>0.6943878021917806</v>
       </c>
       <c r="O18">
-        <v>0.9976741679937112</v>
+        <v>0.6868476356164382</v>
       </c>
       <c r="P18">
-        <v>0.9981628028673245</v>
+        <v>0.9326754731506846</v>
       </c>
       <c r="Q18">
-        <v>0.9981628028673247</v>
+        <v>0.9326754731506846</v>
       </c>
       <c r="R18">
-        <v>0.9979851795152944</v>
+        <v>1.051819308630137</v>
       </c>
       <c r="S18">
-        <v>0.9979851795152944</v>
+        <v>1.051819308630137</v>
       </c>
       <c r="T18">
-        <v>1.000066595654229</v>
+        <v>0.95388035239726</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9851299883489001</v>
+        <v>1.039817774736842</v>
       </c>
       <c r="D19">
-        <v>0.9840649528537047</v>
+        <v>0.8602364342105264</v>
       </c>
       <c r="E19">
-        <v>1.013083819112101</v>
+        <v>0.863193085263158</v>
       </c>
       <c r="F19">
-        <v>0.9851299883489001</v>
+        <v>1.44579859</v>
       </c>
       <c r="G19">
-        <v>1.023420668772174</v>
+        <v>0.9472650827368422</v>
       </c>
       <c r="H19">
-        <v>0.9909605683113726</v>
+        <v>0.8602364342105264</v>
       </c>
       <c r="I19">
-        <v>1.004975120878393</v>
+        <v>1.115914565263158</v>
       </c>
       <c r="J19">
-        <v>0.9840649528537047</v>
+        <v>0.9472650827368422</v>
       </c>
       <c r="K19">
-        <v>0.9851299883489001</v>
+        <v>0.8602364342105264</v>
       </c>
       <c r="L19">
-        <v>1.013083819112101</v>
+        <v>1.115914565263158</v>
       </c>
       <c r="M19">
-        <v>0.9985743859829027</v>
+        <v>1.031589824</v>
       </c>
       <c r="N19">
-        <v>0.9985743859829027</v>
+        <v>1.031589824</v>
       </c>
       <c r="O19">
-        <v>0.9960364467590593</v>
+        <v>0.9754575777543861</v>
       </c>
       <c r="P19">
-        <v>0.9940929201049018</v>
+        <v>0.9744720274035089</v>
       </c>
       <c r="Q19">
-        <v>0.9940929201049018</v>
+        <v>0.9744720274035089</v>
       </c>
       <c r="R19">
-        <v>0.9918521871659014</v>
+        <v>0.9459131291052634</v>
       </c>
       <c r="S19">
-        <v>0.9918521871659014</v>
+        <v>0.9459131291052634</v>
       </c>
       <c r="T19">
-        <v>1.000272519712774</v>
+        <v>1.045370922035088</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.067486836842106</v>
+      </c>
+      <c r="D20">
+        <v>1.111123873157895</v>
+      </c>
+      <c r="E20">
+        <v>0.8658073421052631</v>
+      </c>
+      <c r="F20">
+        <v>1.099792848421053</v>
+      </c>
+      <c r="G20">
+        <v>0.6696977143684212</v>
+      </c>
+      <c r="H20">
+        <v>1.111123873157895</v>
+      </c>
+      <c r="I20">
+        <v>1.050630331578947</v>
+      </c>
+      <c r="J20">
+        <v>0.6696977143684212</v>
+      </c>
+      <c r="K20">
+        <v>1.111123873157895</v>
+      </c>
+      <c r="L20">
+        <v>1.050630331578947</v>
+      </c>
+      <c r="M20">
+        <v>0.8601640229736842</v>
+      </c>
+      <c r="N20">
+        <v>0.8601640229736842</v>
+      </c>
+      <c r="O20">
+        <v>0.8620451293508772</v>
+      </c>
+      <c r="P20">
+        <v>0.9438173063684211</v>
+      </c>
+      <c r="Q20">
+        <v>0.9438173063684211</v>
+      </c>
+      <c r="R20">
+        <v>0.9856439480657895</v>
+      </c>
+      <c r="S20">
+        <v>0.9856439480657895</v>
+      </c>
+      <c r="T20">
+        <v>0.9774231577456142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9609209112134006</v>
+      </c>
+      <c r="D21">
+        <v>1.128368443157231</v>
+      </c>
+      <c r="E21">
+        <v>1.100695383058844</v>
+      </c>
+      <c r="F21">
+        <v>0.6880547720962833</v>
+      </c>
+      <c r="G21">
+        <v>1.107059991008629</v>
+      </c>
+      <c r="H21">
+        <v>1.128368443157231</v>
+      </c>
+      <c r="I21">
+        <v>0.891306929757687</v>
+      </c>
+      <c r="J21">
+        <v>1.107059991008629</v>
+      </c>
+      <c r="K21">
+        <v>1.128368443157231</v>
+      </c>
+      <c r="L21">
+        <v>0.891306929757687</v>
+      </c>
+      <c r="M21">
+        <v>0.9991834603831578</v>
+      </c>
+      <c r="N21">
+        <v>0.9991834603831578</v>
+      </c>
+      <c r="O21">
+        <v>1.03302076794172</v>
+      </c>
+      <c r="P21">
+        <v>1.042245121307849</v>
+      </c>
+      <c r="Q21">
+        <v>1.042245121307849</v>
+      </c>
+      <c r="R21">
+        <v>1.063775951770194</v>
+      </c>
+      <c r="S21">
+        <v>1.063775951770194</v>
+      </c>
+      <c r="T21">
+        <v>0.9794010717153455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9845168770916293</v>
+      </c>
+      <c r="D22">
+        <v>0.9047903044316972</v>
+      </c>
+      <c r="E22">
+        <v>1.032003430596635</v>
+      </c>
+      <c r="F22">
+        <v>1.04052518779118</v>
+      </c>
+      <c r="G22">
+        <v>1.076603690857342</v>
+      </c>
+      <c r="H22">
+        <v>0.9047903044316972</v>
+      </c>
+      <c r="I22">
+        <v>1.017551759393651</v>
+      </c>
+      <c r="J22">
+        <v>1.076603690857342</v>
+      </c>
+      <c r="K22">
+        <v>0.9047903044316972</v>
+      </c>
+      <c r="L22">
+        <v>1.017551759393651</v>
+      </c>
+      <c r="M22">
+        <v>1.047077725125497</v>
+      </c>
+      <c r="N22">
+        <v>1.047077725125497</v>
+      </c>
+      <c r="O22">
+        <v>1.042052960282543</v>
+      </c>
+      <c r="P22">
+        <v>0.9996485848942301</v>
+      </c>
+      <c r="Q22">
+        <v>0.9996485848942301</v>
+      </c>
+      <c r="R22">
+        <v>0.9759340147785969</v>
+      </c>
+      <c r="S22">
+        <v>0.9759340147785969</v>
+      </c>
+      <c r="T22">
+        <v>1.009331875027023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9631478332547384</v>
+      </c>
+      <c r="D23">
+        <v>1.127532719826262</v>
+      </c>
+      <c r="E23">
+        <v>1.102812605789562</v>
+      </c>
+      <c r="F23">
+        <v>0.6737229380453349</v>
+      </c>
+      <c r="G23">
+        <v>1.08026522734354</v>
+      </c>
+      <c r="H23">
+        <v>1.127532719826262</v>
+      </c>
+      <c r="I23">
+        <v>0.8953101273278891</v>
+      </c>
+      <c r="J23">
+        <v>1.08026522734354</v>
+      </c>
+      <c r="K23">
+        <v>1.127532719826262</v>
+      </c>
+      <c r="L23">
+        <v>0.8953101273278891</v>
+      </c>
+      <c r="M23">
+        <v>0.9877876773357148</v>
+      </c>
+      <c r="N23">
+        <v>0.9877876773357148</v>
+      </c>
+      <c r="O23">
+        <v>1.026129320153664</v>
+      </c>
+      <c r="P23">
+        <v>1.034369358165897</v>
+      </c>
+      <c r="Q23">
+        <v>1.034369358165897</v>
+      </c>
+      <c r="R23">
+        <v>1.057660198580988</v>
+      </c>
+      <c r="S23">
+        <v>1.057660198580988</v>
+      </c>
+      <c r="T23">
+        <v>0.9737985752645545</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.983081531568905</v>
+      </c>
+      <c r="D24">
+        <v>0.913971151953227</v>
+      </c>
+      <c r="E24">
+        <v>1.0278688742625</v>
+      </c>
+      <c r="F24">
+        <v>1.047251579162378</v>
+      </c>
+      <c r="G24">
+        <v>1.105869018855079</v>
+      </c>
+      <c r="H24">
+        <v>0.913971151953227</v>
+      </c>
+      <c r="I24">
+        <v>1.011601476215179</v>
+      </c>
+      <c r="J24">
+        <v>1.105869018855079</v>
+      </c>
+      <c r="K24">
+        <v>0.913971151953227</v>
+      </c>
+      <c r="L24">
+        <v>1.011601476215179</v>
+      </c>
+      <c r="M24">
+        <v>1.058735247535129</v>
+      </c>
+      <c r="N24">
+        <v>1.058735247535129</v>
+      </c>
+      <c r="O24">
+        <v>1.048446456444253</v>
+      </c>
+      <c r="P24">
+        <v>1.010480549007829</v>
+      </c>
+      <c r="Q24">
+        <v>1.010480549007829</v>
+      </c>
+      <c r="R24">
+        <v>0.9863531997441781</v>
+      </c>
+      <c r="S24">
+        <v>0.9863531997441781</v>
+      </c>
+      <c r="T24">
+        <v>1.014940605336211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9653740121290679</v>
+      </c>
+      <c r="D25">
+        <v>1.126680096169376</v>
+      </c>
+      <c r="E25">
+        <v>1.104934897030806</v>
+      </c>
+      <c r="F25">
+        <v>0.6593940378363135</v>
+      </c>
+      <c r="G25">
+        <v>1.053475558244585</v>
+      </c>
+      <c r="H25">
+        <v>1.126680096169376</v>
+      </c>
+      <c r="I25">
+        <v>0.8993168049208548</v>
+      </c>
+      <c r="J25">
+        <v>1.053475558244585</v>
+      </c>
+      <c r="K25">
+        <v>1.126680096169376</v>
+      </c>
+      <c r="L25">
+        <v>0.8993168049208548</v>
+      </c>
+      <c r="M25">
+        <v>0.9763961815827198</v>
+      </c>
+      <c r="N25">
+        <v>0.9763961815827198</v>
+      </c>
+      <c r="O25">
+        <v>1.019242420065415</v>
+      </c>
+      <c r="P25">
+        <v>1.026490819778272</v>
+      </c>
+      <c r="Q25">
+        <v>1.026490819778272</v>
+      </c>
+      <c r="R25">
+        <v>1.051538138876048</v>
+      </c>
+      <c r="S25">
+        <v>1.051538138876048</v>
+      </c>
+      <c r="T25">
+        <v>0.9681959010551672</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9816448473522654</v>
+      </c>
+      <c r="D26">
+        <v>0.9231607195563637</v>
+      </c>
+      <c r="E26">
+        <v>1.02373418262171</v>
+      </c>
+      <c r="F26">
+        <v>1.053975517974774</v>
+      </c>
+      <c r="G26">
+        <v>1.135141510133747</v>
+      </c>
+      <c r="H26">
+        <v>0.9231607195563637</v>
+      </c>
+      <c r="I26">
+        <v>1.005646365388522</v>
+      </c>
+      <c r="J26">
+        <v>1.135141510133747</v>
+      </c>
+      <c r="K26">
+        <v>0.9231607195563637</v>
+      </c>
+      <c r="L26">
+        <v>1.005646365388522</v>
+      </c>
+      <c r="M26">
+        <v>1.070393937761135</v>
+      </c>
+      <c r="N26">
+        <v>1.070393937761135</v>
+      </c>
+      <c r="O26">
+        <v>1.054840686047993</v>
+      </c>
+      <c r="P26">
+        <v>1.021316198359544</v>
+      </c>
+      <c r="Q26">
+        <v>1.021316198359544</v>
+      </c>
+      <c r="R26">
+        <v>0.9967773286587492</v>
+      </c>
+      <c r="S26">
+        <v>0.9967773286587492</v>
+      </c>
+      <c r="T26">
+        <v>1.020550523837897</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.021810617744254</v>
+      </c>
+      <c r="D27">
+        <v>1.026860991389501</v>
+      </c>
+      <c r="E27">
+        <v>0.9580450919916782</v>
+      </c>
+      <c r="F27">
+        <v>1.045524441655595</v>
+      </c>
+      <c r="G27">
+        <v>0.867186800749832</v>
+      </c>
+      <c r="H27">
+        <v>1.026860991389501</v>
+      </c>
+      <c r="I27">
+        <v>1.020718936492582</v>
+      </c>
+      <c r="J27">
+        <v>0.867186800749832</v>
+      </c>
+      <c r="K27">
+        <v>1.026860991389501</v>
+      </c>
+      <c r="L27">
+        <v>1.020718936492582</v>
+      </c>
+      <c r="M27">
+        <v>0.9439528686212072</v>
+      </c>
+      <c r="N27">
+        <v>0.9439528686212072</v>
+      </c>
+      <c r="O27">
+        <v>0.9486502764113642</v>
+      </c>
+      <c r="P27">
+        <v>0.9715889095439718</v>
+      </c>
+      <c r="Q27">
+        <v>0.9715889095439718</v>
+      </c>
+      <c r="R27">
+        <v>0.9854069300053541</v>
+      </c>
+      <c r="S27">
+        <v>0.9854069300053541</v>
+      </c>
+      <c r="T27">
+        <v>0.9900244800039072</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.005605147238979</v>
+      </c>
+      <c r="D28">
+        <v>0.9946073123746123</v>
+      </c>
+      <c r="E28">
+        <v>1.003793103016205</v>
+      </c>
+      <c r="F28">
+        <v>0.9523142362852054</v>
+      </c>
+      <c r="G28">
+        <v>0.9933156628550061</v>
+      </c>
+      <c r="H28">
+        <v>0.9946073123746123</v>
+      </c>
+      <c r="I28">
+        <v>1.009148901881041</v>
+      </c>
+      <c r="J28">
+        <v>0.9933156628550061</v>
+      </c>
+      <c r="K28">
+        <v>0.9946073123746123</v>
+      </c>
+      <c r="L28">
+        <v>1.009148901881041</v>
+      </c>
+      <c r="M28">
+        <v>1.001232282368023</v>
+      </c>
+      <c r="N28">
+        <v>1.001232282368023</v>
+      </c>
+      <c r="O28">
+        <v>1.002085889250751</v>
+      </c>
+      <c r="P28">
+        <v>0.9990239590368862</v>
+      </c>
+      <c r="Q28">
+        <v>0.9990239590368862</v>
+      </c>
+      <c r="R28">
+        <v>0.9979197973713178</v>
+      </c>
+      <c r="S28">
+        <v>0.9979197973713178</v>
+      </c>
+      <c r="T28">
+        <v>0.9931307272751747</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9226764492204598</v>
+      </c>
+      <c r="D29">
+        <v>0.9821972655179982</v>
+      </c>
+      <c r="E29">
+        <v>1.146228959941337</v>
+      </c>
+      <c r="F29">
+        <v>0.8131117274739731</v>
+      </c>
+      <c r="G29">
+        <v>1.373799857111372</v>
+      </c>
+      <c r="H29">
+        <v>0.9821972655179982</v>
+      </c>
+      <c r="I29">
+        <v>0.8961026920619324</v>
+      </c>
+      <c r="J29">
+        <v>1.373799857111372</v>
+      </c>
+      <c r="K29">
+        <v>0.9821972655179982</v>
+      </c>
+      <c r="L29">
+        <v>0.8961026920619324</v>
+      </c>
+      <c r="M29">
+        <v>1.134951274586652</v>
+      </c>
+      <c r="N29">
+        <v>1.134951274586652</v>
+      </c>
+      <c r="O29">
+        <v>1.138710503038214</v>
+      </c>
+      <c r="P29">
+        <v>1.084033271563767</v>
+      </c>
+      <c r="Q29">
+        <v>1.084033271563767</v>
+      </c>
+      <c r="R29">
+        <v>1.058574270052325</v>
+      </c>
+      <c r="S29">
+        <v>1.058574270052325</v>
+      </c>
+      <c r="T29">
+        <v>1.022352825221179</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.019818617797573</v>
+        <v>1.045274422501928</v>
       </c>
       <c r="D4">
-        <v>0.9898503112760233</v>
+        <v>0.9795000712542317</v>
       </c>
       <c r="E4">
-        <v>0.9569056122986398</v>
+        <v>0.8866012335377789</v>
       </c>
       <c r="F4">
-        <v>1.07694413009553</v>
+        <v>1.235398478280111</v>
       </c>
       <c r="G4">
-        <v>0.9286850138076796</v>
+        <v>0.8410139059491909</v>
       </c>
       <c r="H4">
-        <v>0.9898503112760233</v>
+        <v>0.9795000712542317</v>
       </c>
       <c r="I4">
-        <v>1.032311856318247</v>
+        <v>1.072692092687568</v>
       </c>
       <c r="J4">
-        <v>0.9286850138076796</v>
+        <v>0.8410139059491909</v>
       </c>
       <c r="K4">
-        <v>0.9898503112760233</v>
+        <v>0.9795000712542317</v>
       </c>
       <c r="L4">
-        <v>1.032311856318247</v>
+        <v>1.072692092687568</v>
       </c>
       <c r="M4">
-        <v>0.9804984350629632</v>
+        <v>0.9568529993183792</v>
       </c>
       <c r="N4">
-        <v>0.9804984350629632</v>
+        <v>0.9568529993183792</v>
       </c>
       <c r="O4">
-        <v>0.9726341608081888</v>
+        <v>0.9334357440581792</v>
       </c>
       <c r="P4">
-        <v>0.9836157271339833</v>
+        <v>0.9644020232969966</v>
       </c>
       <c r="Q4">
-        <v>0.9836157271339833</v>
+        <v>0.9644020232969966</v>
       </c>
       <c r="R4">
-        <v>0.9851743731694933</v>
+        <v>0.9681765352863054</v>
       </c>
       <c r="S4">
-        <v>0.9851743731694933</v>
+        <v>0.9681765352863054</v>
       </c>
       <c r="T4">
-        <v>1.000752590265615</v>
+        <v>1.010080034035135</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.054282889553313</v>
+        <v>1.048111429358485</v>
       </c>
       <c r="D5">
-        <v>0.9862551054034612</v>
+        <v>1.124175870147461</v>
       </c>
       <c r="E5">
-        <v>0.8644370523487006</v>
+        <v>0.9224304145774895</v>
       </c>
       <c r="F5">
-        <v>1.270964248170029</v>
+        <v>0.9642386048563198</v>
       </c>
       <c r="G5">
-        <v>0.8058706541188749</v>
+        <v>0.7302881228589319</v>
       </c>
       <c r="H5">
-        <v>0.9862551054034612</v>
+        <v>1.124175870147461</v>
       </c>
       <c r="I5">
-        <v>1.082828135893373</v>
+        <v>1.017319443930226</v>
       </c>
       <c r="J5">
-        <v>0.8058706541188749</v>
+        <v>0.7302881228589319</v>
       </c>
       <c r="K5">
-        <v>0.9862551054034612</v>
+        <v>1.124175870147461</v>
       </c>
       <c r="L5">
-        <v>1.082828135893373</v>
+        <v>1.017319443930226</v>
       </c>
       <c r="M5">
-        <v>0.9443493950061239</v>
+        <v>0.8738037833945786</v>
       </c>
       <c r="N5">
-        <v>0.9443493950061239</v>
+        <v>0.8738037833945786</v>
       </c>
       <c r="O5">
-        <v>0.9177119474536495</v>
+        <v>0.8900126604555489</v>
       </c>
       <c r="P5">
-        <v>0.9583179651385697</v>
+        <v>0.9572611456455394</v>
       </c>
       <c r="Q5">
-        <v>0.9583179651385697</v>
+        <v>0.9572611456455394</v>
       </c>
       <c r="R5">
-        <v>0.9653022502047925</v>
+        <v>0.9989898267710198</v>
       </c>
       <c r="S5">
-        <v>0.9653022502047925</v>
+        <v>0.9989898267710198</v>
       </c>
       <c r="T5">
-        <v>1.010773014247959</v>
+        <v>0.9677606476214855</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.16240928634911</v>
+        <v>1.019818617797573</v>
       </c>
       <c r="D6">
-        <v>0.8255906998404375</v>
+        <v>0.9898503112760233</v>
       </c>
       <c r="E6">
-        <v>0.5559686122603607</v>
+        <v>0.9569056122986398</v>
       </c>
       <c r="F6">
-        <v>2.092692731004953</v>
+        <v>1.07694413009553</v>
       </c>
       <c r="G6">
-        <v>0.4484093740282159</v>
+        <v>0.9286850138076796</v>
       </c>
       <c r="H6">
-        <v>0.8255906998404375</v>
+        <v>0.9898503112760233</v>
       </c>
       <c r="I6">
-        <v>1.30453205562243</v>
+        <v>1.032311856318247</v>
       </c>
       <c r="J6">
-        <v>0.4484093740282159</v>
+        <v>0.9286850138076796</v>
       </c>
       <c r="K6">
-        <v>0.8255906998404375</v>
+        <v>0.9898503112760233</v>
       </c>
       <c r="L6">
-        <v>1.30453205562243</v>
+        <v>1.032311856318247</v>
       </c>
       <c r="M6">
-        <v>0.8764707148253228</v>
+        <v>0.9804984350629632</v>
       </c>
       <c r="N6">
-        <v>0.8764707148253228</v>
+        <v>0.9804984350629632</v>
       </c>
       <c r="O6">
-        <v>0.7696366806370021</v>
+        <v>0.9726341608081888</v>
       </c>
       <c r="P6">
-        <v>0.859510709830361</v>
+        <v>0.9836157271339833</v>
       </c>
       <c r="Q6">
-        <v>0.8595107098303609</v>
+        <v>0.9836157271339833</v>
       </c>
       <c r="R6">
-        <v>0.8510307073328801</v>
+        <v>0.9851743731694933</v>
       </c>
       <c r="S6">
-        <v>0.8510307073328801</v>
+        <v>0.9851743731694933</v>
       </c>
       <c r="T6">
-        <v>1.064933793184251</v>
+        <v>1.000752590265615</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.007431604689494</v>
+        <v>1.054282889553313</v>
       </c>
       <c r="D7">
-        <v>1.017980253023601</v>
+        <v>0.9862551054034612</v>
       </c>
       <c r="E7">
-        <v>0.9845936065944944</v>
+        <v>0.8644370523487006</v>
       </c>
       <c r="F7">
-        <v>1.005776016831752</v>
+        <v>1.270964248170029</v>
       </c>
       <c r="G7">
-        <v>0.9687433185471953</v>
+        <v>0.8058706541188749</v>
       </c>
       <c r="H7">
-        <v>1.017980253023601</v>
+        <v>0.9862551054034612</v>
       </c>
       <c r="I7">
-        <v>1.00314367031883</v>
+        <v>1.082828135893373</v>
       </c>
       <c r="J7">
-        <v>0.9687433185471953</v>
+        <v>0.8058706541188749</v>
       </c>
       <c r="K7">
-        <v>1.017980253023601</v>
+        <v>0.9862551054034612</v>
       </c>
       <c r="L7">
-        <v>1.00314367031883</v>
+        <v>1.082828135893373</v>
       </c>
       <c r="M7">
-        <v>0.9859434944330125</v>
+        <v>0.9443493950061239</v>
       </c>
       <c r="N7">
-        <v>0.9859434944330125</v>
+        <v>0.9443493950061239</v>
       </c>
       <c r="O7">
-        <v>0.9854935318201732</v>
+        <v>0.9177119474536495</v>
       </c>
       <c r="P7">
-        <v>0.9966224139632086</v>
+        <v>0.9583179651385697</v>
       </c>
       <c r="Q7">
-        <v>0.9966224139632086</v>
+        <v>0.9583179651385697</v>
       </c>
       <c r="R7">
-        <v>1.001961873728307</v>
+        <v>0.9653022502047925</v>
       </c>
       <c r="S7">
-        <v>1.001961873728307</v>
+        <v>0.9653022502047925</v>
       </c>
       <c r="T7">
-        <v>0.9979447450008946</v>
+        <v>1.010773014247959</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000492989533705</v>
+        <v>1.16240928634911</v>
       </c>
       <c r="D8">
-        <v>1.003746377644306</v>
+        <v>0.8255906998404375</v>
       </c>
       <c r="E8">
-        <v>0.9987284105562606</v>
+        <v>0.5559686122603607</v>
       </c>
       <c r="F8">
-        <v>0.9991479783530509</v>
+        <v>2.092692731004953</v>
       </c>
       <c r="G8">
-        <v>0.9972633192141398</v>
+        <v>0.4484093740282159</v>
       </c>
       <c r="H8">
-        <v>1.003746377644306</v>
+        <v>0.8255906998404375</v>
       </c>
       <c r="I8">
-        <v>0.9991721652816101</v>
+        <v>1.30453205562243</v>
       </c>
       <c r="J8">
-        <v>0.9972633192141398</v>
+        <v>0.4484093740282159</v>
       </c>
       <c r="K8">
-        <v>1.003746377644306</v>
+        <v>0.8255906998404375</v>
       </c>
       <c r="L8">
-        <v>0.9991721652816101</v>
+        <v>1.30453205562243</v>
       </c>
       <c r="M8">
-        <v>0.998217742247875</v>
+        <v>0.8764707148253228</v>
       </c>
       <c r="N8">
-        <v>0.998217742247875</v>
+        <v>0.8764707148253228</v>
       </c>
       <c r="O8">
-        <v>0.9983879650173368</v>
+        <v>0.7696366806370021</v>
       </c>
       <c r="P8">
-        <v>1.000060620713352</v>
+        <v>0.859510709830361</v>
       </c>
       <c r="Q8">
-        <v>1.000060620713352</v>
+        <v>0.8595107098303609</v>
       </c>
       <c r="R8">
-        <v>1.000982059946091</v>
+        <v>0.8510307073328801</v>
       </c>
       <c r="S8">
-        <v>1.000982059946091</v>
+        <v>0.8510307073328801</v>
       </c>
       <c r="T8">
-        <v>0.9997585400971789</v>
+        <v>1.064933793184251</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.013102001119629</v>
+        <v>1.007431604689494</v>
       </c>
       <c r="D9">
-        <v>1.032239725709313</v>
+        <v>1.017980253023601</v>
       </c>
       <c r="E9">
-        <v>0.9726384375701365</v>
+        <v>0.9845936065944944</v>
       </c>
       <c r="F9">
-        <v>1.010205978997884</v>
+        <v>1.005776016831752</v>
       </c>
       <c r="G9">
-        <v>0.9452826108545648</v>
+        <v>0.9687433185471953</v>
       </c>
       <c r="H9">
-        <v>1.032239725709313</v>
+        <v>1.017980253023601</v>
       </c>
       <c r="I9">
-        <v>1.005381522606072</v>
+        <v>1.00314367031883</v>
       </c>
       <c r="J9">
-        <v>0.9452826108545648</v>
+        <v>0.9687433185471953</v>
       </c>
       <c r="K9">
-        <v>1.032239725709313</v>
+        <v>1.017980253023601</v>
       </c>
       <c r="L9">
-        <v>1.005381522606072</v>
+        <v>1.00314367031883</v>
       </c>
       <c r="M9">
-        <v>0.9753320667303182</v>
+        <v>0.9859434944330125</v>
       </c>
       <c r="N9">
-        <v>0.9753320667303182</v>
+        <v>0.9859434944330125</v>
       </c>
       <c r="O9">
-        <v>0.974434190343591</v>
+        <v>0.9854935318201732</v>
       </c>
       <c r="P9">
-        <v>0.9943012863899833</v>
+        <v>0.9966224139632086</v>
       </c>
       <c r="Q9">
-        <v>0.9943012863899831</v>
+        <v>0.9966224139632086</v>
       </c>
       <c r="R9">
-        <v>1.003785896219816</v>
+        <v>1.001961873728307</v>
       </c>
       <c r="S9">
-        <v>1.003785896219816</v>
+        <v>1.001961873728307</v>
       </c>
       <c r="T9">
-        <v>0.9964750461429329</v>
+        <v>0.9979447450008946</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.164004876635732</v>
+        <v>1.000492989533705</v>
       </c>
       <c r="D10">
-        <v>0.8177350500345411</v>
+        <v>1.003746377644306</v>
       </c>
       <c r="E10">
-        <v>0.5493015964010177</v>
+        <v>0.9987284105562606</v>
       </c>
       <c r="F10">
-        <v>2.117425567662383</v>
+        <v>0.9991479783530509</v>
       </c>
       <c r="G10">
-        <v>0.4474640094510445</v>
+        <v>0.9972633192141398</v>
       </c>
       <c r="H10">
-        <v>0.8177350500345411</v>
+        <v>1.003746377644306</v>
       </c>
       <c r="I10">
-        <v>1.310085842996553</v>
+        <v>0.9991721652816101</v>
       </c>
       <c r="J10">
-        <v>0.4474640094510445</v>
+        <v>0.9972633192141398</v>
       </c>
       <c r="K10">
-        <v>0.8177350500345411</v>
+        <v>1.003746377644306</v>
       </c>
       <c r="L10">
-        <v>1.310085842996553</v>
+        <v>0.9991721652816101</v>
       </c>
       <c r="M10">
-        <v>0.8787749262237987</v>
+        <v>0.998217742247875</v>
       </c>
       <c r="N10">
-        <v>0.8787749262237987</v>
+        <v>0.998217742247875</v>
       </c>
       <c r="O10">
-        <v>0.7689504829495384</v>
+        <v>0.9983879650173368</v>
       </c>
       <c r="P10">
-        <v>0.8584283008273795</v>
+        <v>1.000060620713352</v>
       </c>
       <c r="Q10">
-        <v>0.8584283008273795</v>
+        <v>1.000060620713352</v>
       </c>
       <c r="R10">
-        <v>0.8482549881291699</v>
+        <v>1.000982059946091</v>
       </c>
       <c r="S10">
-        <v>0.8482549881291699</v>
+        <v>1.000982059946091</v>
       </c>
       <c r="T10">
-        <v>1.067669490530212</v>
+        <v>0.9997585400971789</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.022887616627335</v>
+        <v>1.013102001119629</v>
       </c>
       <c r="D11">
-        <v>1.028737002955082</v>
+        <v>1.032239725709313</v>
       </c>
       <c r="E11">
-        <v>0.9582116434574156</v>
+        <v>0.9726384375701365</v>
       </c>
       <c r="F11">
-        <v>1.022421162284288</v>
+        <v>1.010205978997884</v>
       </c>
       <c r="G11">
-        <v>0.899601506187661</v>
+        <v>0.9452826108545648</v>
       </c>
       <c r="H11">
-        <v>1.028737002955082</v>
+        <v>1.032239725709313</v>
       </c>
       <c r="I11">
-        <v>1.020472158429636</v>
+        <v>1.005381522606072</v>
       </c>
       <c r="J11">
-        <v>0.899601506187661</v>
+        <v>0.9452826108545648</v>
       </c>
       <c r="K11">
-        <v>1.028737002955082</v>
+        <v>1.032239725709313</v>
       </c>
       <c r="L11">
-        <v>1.020472158429636</v>
+        <v>1.005381522606072</v>
       </c>
       <c r="M11">
-        <v>0.9600368323086484</v>
+        <v>0.9753320667303182</v>
       </c>
       <c r="N11">
-        <v>0.9600368323086484</v>
+        <v>0.9753320667303182</v>
       </c>
       <c r="O11">
-        <v>0.9594284360249041</v>
+        <v>0.974434190343591</v>
       </c>
       <c r="P11">
-        <v>0.9829368891907929</v>
+        <v>0.9943012863899833</v>
       </c>
       <c r="Q11">
-        <v>0.9829368891907929</v>
+        <v>0.9943012863899831</v>
       </c>
       <c r="R11">
-        <v>0.994386917631865</v>
+        <v>1.003785896219816</v>
       </c>
       <c r="S11">
-        <v>0.994386917631865</v>
+        <v>1.003785896219816</v>
       </c>
       <c r="T11">
-        <v>0.9920551816569029</v>
+        <v>0.9964750461429329</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.050792699199997</v>
+        <v>1.164004876635732</v>
       </c>
       <c r="D12">
-        <v>0.9418745603157909</v>
+        <v>0.8177350500345411</v>
       </c>
       <c r="E12">
-        <v>0.8631943522421034</v>
+        <v>0.5493015964010177</v>
       </c>
       <c r="F12">
-        <v>1.333047907557898</v>
+        <v>2.117425567662383</v>
       </c>
       <c r="G12">
-        <v>0.8367297343968423</v>
+        <v>0.4474640094510445</v>
       </c>
       <c r="H12">
-        <v>0.9418745603157909</v>
+        <v>0.8177350500345411</v>
       </c>
       <c r="I12">
-        <v>1.096372424610526</v>
+        <v>1.310085842996553</v>
       </c>
       <c r="J12">
-        <v>0.8367297343968423</v>
+        <v>0.4474640094510445</v>
       </c>
       <c r="K12">
-        <v>0.9418745603157909</v>
+        <v>0.8177350500345411</v>
       </c>
       <c r="L12">
-        <v>1.096372424610526</v>
+        <v>1.310085842996553</v>
       </c>
       <c r="M12">
-        <v>0.9665510795036841</v>
+        <v>0.8787749262237987</v>
       </c>
       <c r="N12">
-        <v>0.9665510795036841</v>
+        <v>0.8787749262237987</v>
       </c>
       <c r="O12">
-        <v>0.9320988370831572</v>
+        <v>0.7689504829495384</v>
       </c>
       <c r="P12">
-        <v>0.9583255731077197</v>
+        <v>0.8584283008273795</v>
       </c>
       <c r="Q12">
-        <v>0.9583255731077197</v>
+        <v>0.8584283008273795</v>
       </c>
       <c r="R12">
-        <v>0.9542128199097375</v>
+        <v>0.8482549881291699</v>
       </c>
       <c r="S12">
-        <v>0.9542128199097375</v>
+        <v>0.8482549881291699</v>
       </c>
       <c r="T12">
-        <v>1.020335279720526</v>
+        <v>1.067669490530212</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9577159820819982</v>
+        <v>1.022887616627335</v>
       </c>
       <c r="D13">
-        <v>0.9748616563672092</v>
+        <v>1.028737002955082</v>
       </c>
       <c r="E13">
-        <v>1.091388007380469</v>
+        <v>0.9582116434574156</v>
       </c>
       <c r="F13">
-        <v>0.8749422255286314</v>
+        <v>1.022421162284288</v>
       </c>
       <c r="G13">
-        <v>1.174299101618901</v>
+        <v>0.899601506187661</v>
       </c>
       <c r="H13">
-        <v>0.9748616563672092</v>
+        <v>1.028737002955082</v>
       </c>
       <c r="I13">
-        <v>0.9505850949382995</v>
+        <v>1.020472158429636</v>
       </c>
       <c r="J13">
-        <v>1.174299101618901</v>
+        <v>0.899601506187661</v>
       </c>
       <c r="K13">
-        <v>0.9748616563672092</v>
+        <v>1.028737002955082</v>
       </c>
       <c r="L13">
-        <v>0.9505850949382995</v>
+        <v>1.020472158429636</v>
       </c>
       <c r="M13">
-        <v>1.0624420982786</v>
+        <v>0.9600368323086484</v>
       </c>
       <c r="N13">
-        <v>1.0624420982786</v>
+        <v>0.9600368323086484</v>
       </c>
       <c r="O13">
-        <v>1.07209073464589</v>
+        <v>0.9594284360249041</v>
       </c>
       <c r="P13">
-        <v>1.03324861764147</v>
+        <v>0.9829368891907929</v>
       </c>
       <c r="Q13">
-        <v>1.03324861764147</v>
+        <v>0.9829368891907929</v>
       </c>
       <c r="R13">
-        <v>1.018651877322905</v>
+        <v>0.994386917631865</v>
       </c>
       <c r="S13">
-        <v>1.018651877322905</v>
+        <v>0.994386917631865</v>
       </c>
       <c r="T13">
-        <v>1.003965344652584</v>
+        <v>0.9920551816569029</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.280074200000001</v>
+        <v>1.050792699199997</v>
       </c>
       <c r="D14">
-        <v>0.6692091899999988</v>
+        <v>0.9418745603157909</v>
       </c>
       <c r="E14">
-        <v>0.2238942000000001</v>
+        <v>0.8631943522421034</v>
       </c>
       <c r="F14">
-        <v>2.955281000000005</v>
+        <v>1.333047907557898</v>
       </c>
       <c r="G14">
-        <v>0.05435712199999995</v>
+        <v>0.8367297343968423</v>
       </c>
       <c r="H14">
-        <v>0.6692091899999988</v>
+        <v>0.9418745603157909</v>
       </c>
       <c r="I14">
-        <v>1.538146999999998</v>
+        <v>1.096372424610526</v>
       </c>
       <c r="J14">
-        <v>0.05435712199999995</v>
+        <v>0.8367297343968423</v>
       </c>
       <c r="K14">
-        <v>0.6692091899999988</v>
+        <v>0.9418745603157909</v>
       </c>
       <c r="L14">
-        <v>1.538146999999998</v>
+        <v>1.096372424610526</v>
       </c>
       <c r="M14">
-        <v>0.7962520609999991</v>
+        <v>0.9665510795036841</v>
       </c>
       <c r="N14">
-        <v>0.7962520609999991</v>
+        <v>0.9665510795036841</v>
       </c>
       <c r="O14">
-        <v>0.6054661073333328</v>
+        <v>0.9320988370831572</v>
       </c>
       <c r="P14">
-        <v>0.7539044373333322</v>
+        <v>0.9583255731077197</v>
       </c>
       <c r="Q14">
-        <v>0.7539044373333325</v>
+        <v>0.9583255731077197</v>
       </c>
       <c r="R14">
-        <v>0.732730625499999</v>
+        <v>0.9542128199097375</v>
       </c>
       <c r="S14">
-        <v>0.732730625499999</v>
+        <v>0.9542128199097375</v>
       </c>
       <c r="T14">
-        <v>1.120160452000001</v>
+        <v>1.020335279720526</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.1585466</v>
+        <v>0.9577159820819982</v>
       </c>
       <c r="D15">
-        <v>1.9813918</v>
+        <v>0.9748616563672092</v>
       </c>
       <c r="E15">
-        <v>0.6454245799999999</v>
+        <v>1.091388007380469</v>
       </c>
       <c r="F15">
-        <v>0.66920919</v>
+        <v>0.8749422255286314</v>
       </c>
       <c r="G15">
-        <v>0.21885897</v>
+        <v>1.174299101618901</v>
       </c>
       <c r="H15">
-        <v>1.9813918</v>
+        <v>0.9748616563672092</v>
       </c>
       <c r="I15">
-        <v>0.8289786500000002</v>
+        <v>0.9505850949382995</v>
       </c>
       <c r="J15">
-        <v>0.21885897</v>
+        <v>1.174299101618901</v>
       </c>
       <c r="K15">
-        <v>1.9813918</v>
+        <v>0.9748616563672092</v>
       </c>
       <c r="L15">
-        <v>0.8289786500000002</v>
+        <v>0.9505850949382995</v>
       </c>
       <c r="M15">
-        <v>0.5239188100000001</v>
+        <v>1.0624420982786</v>
       </c>
       <c r="N15">
-        <v>0.5239188100000001</v>
+        <v>1.0624420982786</v>
       </c>
       <c r="O15">
-        <v>0.5644207333333333</v>
+        <v>1.07209073464589</v>
       </c>
       <c r="P15">
-        <v>1.00974314</v>
+        <v>1.03324861764147</v>
       </c>
       <c r="Q15">
-        <v>1.00974314</v>
+        <v>1.03324861764147</v>
       </c>
       <c r="R15">
-        <v>1.252655305</v>
+        <v>1.018651877322905</v>
       </c>
       <c r="S15">
-        <v>1.252655305</v>
+        <v>1.018651877322905</v>
       </c>
       <c r="T15">
-        <v>0.9170682983333333</v>
+        <v>1.003965344652584</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.1562914</v>
+        <v>1.280074200000001</v>
       </c>
       <c r="D16">
-        <v>0.8289779500000001</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="E16">
-        <v>0.69561173</v>
+        <v>0.2238942000000001</v>
       </c>
       <c r="F16">
-        <v>1.5381067</v>
+        <v>2.955281000000005</v>
       </c>
       <c r="G16">
-        <v>0.44911069</v>
+        <v>0.05435712199999995</v>
       </c>
       <c r="H16">
-        <v>0.8289779500000001</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="I16">
-        <v>1.2942026</v>
+        <v>1.538146999999998</v>
       </c>
       <c r="J16">
-        <v>0.44911069</v>
+        <v>0.05435712199999995</v>
       </c>
       <c r="K16">
-        <v>0.8289779500000001</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="L16">
-        <v>1.2942026</v>
+        <v>1.538146999999998</v>
       </c>
       <c r="M16">
-        <v>0.8716566449999998</v>
+        <v>0.7962520609999991</v>
       </c>
       <c r="N16">
-        <v>0.8716566449999998</v>
+        <v>0.7962520609999991</v>
       </c>
       <c r="O16">
-        <v>0.8129750066666666</v>
+        <v>0.6054661073333328</v>
       </c>
       <c r="P16">
-        <v>0.8574304133333333</v>
+        <v>0.7539044373333322</v>
       </c>
       <c r="Q16">
-        <v>0.8574304133333333</v>
+        <v>0.7539044373333325</v>
       </c>
       <c r="R16">
-        <v>0.8503172975</v>
+        <v>0.732730625499999</v>
       </c>
       <c r="S16">
-        <v>0.8503172975</v>
+        <v>0.732730625499999</v>
       </c>
       <c r="T16">
-        <v>0.9937168449999999</v>
+        <v>1.120160452000001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.83983323</v>
+        <v>1.1585466</v>
       </c>
       <c r="D17">
-        <v>0.56029458</v>
+        <v>1.9813918</v>
       </c>
       <c r="E17">
-        <v>1.2294101</v>
+        <v>0.6454245799999999</v>
       </c>
       <c r="F17">
-        <v>1.2565152</v>
+        <v>0.66920919</v>
       </c>
       <c r="G17">
-        <v>1.9240721</v>
+        <v>0.21885897</v>
       </c>
       <c r="H17">
-        <v>0.56029458</v>
+        <v>1.9813918</v>
       </c>
       <c r="I17">
-        <v>0.9546359199999999</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="J17">
-        <v>1.9240721</v>
+        <v>0.21885897</v>
       </c>
       <c r="K17">
-        <v>0.56029458</v>
+        <v>1.9813918</v>
       </c>
       <c r="L17">
-        <v>0.9546359199999999</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="M17">
-        <v>1.43935401</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="N17">
-        <v>1.43935401</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="O17">
-        <v>1.369372706666667</v>
+        <v>0.5644207333333333</v>
       </c>
       <c r="P17">
-        <v>1.1463342</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q17">
-        <v>1.1463342</v>
+        <v>1.00974314</v>
       </c>
       <c r="R17">
-        <v>0.999824295</v>
+        <v>1.252655305</v>
       </c>
       <c r="S17">
-        <v>0.999824295</v>
+        <v>1.252655305</v>
       </c>
       <c r="T17">
-        <v>1.127460188333333</v>
+        <v>0.9170682983333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.158590139726027</v>
+        <v>1.1562914</v>
       </c>
       <c r="D18">
-        <v>1.409250815068493</v>
+        <v>0.8289779500000001</v>
       </c>
       <c r="E18">
-        <v>0.6717673024657536</v>
+        <v>0.69561173</v>
       </c>
       <c r="F18">
-        <v>1.094898252739726</v>
+        <v>1.5381067</v>
       </c>
       <c r="G18">
-        <v>0.3317259508219178</v>
+        <v>0.44911069</v>
       </c>
       <c r="H18">
-        <v>1.409250815068493</v>
+        <v>0.8289779500000001</v>
       </c>
       <c r="I18">
-        <v>1.057049653561643</v>
+        <v>1.2942026</v>
       </c>
       <c r="J18">
-        <v>0.3317259508219178</v>
+        <v>0.44911069</v>
       </c>
       <c r="K18">
-        <v>1.409250815068493</v>
+        <v>0.8289779500000001</v>
       </c>
       <c r="L18">
-        <v>1.057049653561643</v>
+        <v>1.2942026</v>
       </c>
       <c r="M18">
-        <v>0.6943878021917806</v>
+        <v>0.8716566449999998</v>
       </c>
       <c r="N18">
-        <v>0.6943878021917806</v>
+        <v>0.8716566449999998</v>
       </c>
       <c r="O18">
-        <v>0.6868476356164382</v>
+        <v>0.8129750066666666</v>
       </c>
       <c r="P18">
-        <v>0.9326754731506846</v>
+        <v>0.8574304133333333</v>
       </c>
       <c r="Q18">
-        <v>0.9326754731506846</v>
+        <v>0.8574304133333333</v>
       </c>
       <c r="R18">
-        <v>1.051819308630137</v>
+        <v>0.8503172975</v>
       </c>
       <c r="S18">
-        <v>1.051819308630137</v>
+        <v>0.8503172975</v>
       </c>
       <c r="T18">
-        <v>0.95388035239726</v>
+        <v>0.9937168449999999</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.039817774736842</v>
+        <v>0.83983323</v>
       </c>
       <c r="D19">
-        <v>0.8602364342105264</v>
+        <v>0.56029458</v>
       </c>
       <c r="E19">
-        <v>0.863193085263158</v>
+        <v>1.2294101</v>
       </c>
       <c r="F19">
-        <v>1.44579859</v>
+        <v>1.2565152</v>
       </c>
       <c r="G19">
-        <v>0.9472650827368422</v>
+        <v>1.9240721</v>
       </c>
       <c r="H19">
-        <v>0.8602364342105264</v>
+        <v>0.56029458</v>
       </c>
       <c r="I19">
-        <v>1.115914565263158</v>
+        <v>0.9546359199999999</v>
       </c>
       <c r="J19">
-        <v>0.9472650827368422</v>
+        <v>1.9240721</v>
       </c>
       <c r="K19">
-        <v>0.8602364342105264</v>
+        <v>0.56029458</v>
       </c>
       <c r="L19">
-        <v>1.115914565263158</v>
+        <v>0.9546359199999999</v>
       </c>
       <c r="M19">
-        <v>1.031589824</v>
+        <v>1.43935401</v>
       </c>
       <c r="N19">
-        <v>1.031589824</v>
+        <v>1.43935401</v>
       </c>
       <c r="O19">
-        <v>0.9754575777543861</v>
+        <v>1.369372706666667</v>
       </c>
       <c r="P19">
-        <v>0.9744720274035089</v>
+        <v>1.1463342</v>
       </c>
       <c r="Q19">
-        <v>0.9744720274035089</v>
+        <v>1.1463342</v>
       </c>
       <c r="R19">
-        <v>0.9459131291052634</v>
+        <v>0.999824295</v>
       </c>
       <c r="S19">
-        <v>0.9459131291052634</v>
+        <v>0.999824295</v>
       </c>
       <c r="T19">
-        <v>1.045370922035088</v>
+        <v>1.127460188333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.067486836842106</v>
+        <v>1.158590139726027</v>
       </c>
       <c r="D20">
-        <v>1.111123873157895</v>
+        <v>1.409250815068493</v>
       </c>
       <c r="E20">
-        <v>0.8658073421052631</v>
+        <v>0.6717673024657536</v>
       </c>
       <c r="F20">
-        <v>1.099792848421053</v>
+        <v>1.094898252739726</v>
       </c>
       <c r="G20">
-        <v>0.6696977143684212</v>
+        <v>0.3317259508219178</v>
       </c>
       <c r="H20">
-        <v>1.111123873157895</v>
+        <v>1.409250815068493</v>
       </c>
       <c r="I20">
-        <v>1.050630331578947</v>
+        <v>1.057049653561643</v>
       </c>
       <c r="J20">
-        <v>0.6696977143684212</v>
+        <v>0.3317259508219178</v>
       </c>
       <c r="K20">
-        <v>1.111123873157895</v>
+        <v>1.409250815068493</v>
       </c>
       <c r="L20">
-        <v>1.050630331578947</v>
+        <v>1.057049653561643</v>
       </c>
       <c r="M20">
-        <v>0.8601640229736842</v>
+        <v>0.6943878021917806</v>
       </c>
       <c r="N20">
-        <v>0.8601640229736842</v>
+        <v>0.6943878021917806</v>
       </c>
       <c r="O20">
-        <v>0.8620451293508772</v>
+        <v>0.6868476356164382</v>
       </c>
       <c r="P20">
-        <v>0.9438173063684211</v>
+        <v>0.9326754731506846</v>
       </c>
       <c r="Q20">
-        <v>0.9438173063684211</v>
+        <v>0.9326754731506846</v>
       </c>
       <c r="R20">
-        <v>0.9856439480657895</v>
+        <v>1.051819308630137</v>
       </c>
       <c r="S20">
-        <v>0.9856439480657895</v>
+        <v>1.051819308630137</v>
       </c>
       <c r="T20">
-        <v>0.9774231577456142</v>
+        <v>0.95388035239726</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9609209112134006</v>
+        <v>1.039817774736842</v>
       </c>
       <c r="D21">
-        <v>1.128368443157231</v>
+        <v>0.8602364342105264</v>
       </c>
       <c r="E21">
-        <v>1.100695383058844</v>
+        <v>0.863193085263158</v>
       </c>
       <c r="F21">
-        <v>0.6880547720962833</v>
+        <v>1.44579859</v>
       </c>
       <c r="G21">
-        <v>1.107059991008629</v>
+        <v>0.9472650827368422</v>
       </c>
       <c r="H21">
-        <v>1.128368443157231</v>
+        <v>0.8602364342105264</v>
       </c>
       <c r="I21">
-        <v>0.891306929757687</v>
+        <v>1.115914565263158</v>
       </c>
       <c r="J21">
-        <v>1.107059991008629</v>
+        <v>0.9472650827368422</v>
       </c>
       <c r="K21">
-        <v>1.128368443157231</v>
+        <v>0.8602364342105264</v>
       </c>
       <c r="L21">
-        <v>0.891306929757687</v>
+        <v>1.115914565263158</v>
       </c>
       <c r="M21">
-        <v>0.9991834603831578</v>
+        <v>1.031589824</v>
       </c>
       <c r="N21">
-        <v>0.9991834603831578</v>
+        <v>1.031589824</v>
       </c>
       <c r="O21">
-        <v>1.03302076794172</v>
+        <v>0.9754575777543861</v>
       </c>
       <c r="P21">
-        <v>1.042245121307849</v>
+        <v>0.9744720274035089</v>
       </c>
       <c r="Q21">
-        <v>1.042245121307849</v>
+        <v>0.9744720274035089</v>
       </c>
       <c r="R21">
-        <v>1.063775951770194</v>
+        <v>0.9459131291052634</v>
       </c>
       <c r="S21">
-        <v>1.063775951770194</v>
+        <v>0.9459131291052634</v>
       </c>
       <c r="T21">
-        <v>0.9794010717153455</v>
+        <v>1.045370922035088</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9845168770916293</v>
+        <v>1.067486836842106</v>
       </c>
       <c r="D22">
-        <v>0.9047903044316972</v>
+        <v>1.111123873157895</v>
       </c>
       <c r="E22">
-        <v>1.032003430596635</v>
+        <v>0.8658073421052631</v>
       </c>
       <c r="F22">
-        <v>1.04052518779118</v>
+        <v>1.099792848421053</v>
       </c>
       <c r="G22">
-        <v>1.076603690857342</v>
+        <v>0.6696977143684212</v>
       </c>
       <c r="H22">
-        <v>0.9047903044316972</v>
+        <v>1.111123873157895</v>
       </c>
       <c r="I22">
-        <v>1.017551759393651</v>
+        <v>1.050630331578947</v>
       </c>
       <c r="J22">
-        <v>1.076603690857342</v>
+        <v>0.6696977143684212</v>
       </c>
       <c r="K22">
-        <v>0.9047903044316972</v>
+        <v>1.111123873157895</v>
       </c>
       <c r="L22">
-        <v>1.017551759393651</v>
+        <v>1.050630331578947</v>
       </c>
       <c r="M22">
-        <v>1.047077725125497</v>
+        <v>0.8601640229736842</v>
       </c>
       <c r="N22">
-        <v>1.047077725125497</v>
+        <v>0.8601640229736842</v>
       </c>
       <c r="O22">
-        <v>1.042052960282543</v>
+        <v>0.8620451293508772</v>
       </c>
       <c r="P22">
-        <v>0.9996485848942301</v>
+        <v>0.9438173063684211</v>
       </c>
       <c r="Q22">
-        <v>0.9996485848942301</v>
+        <v>0.9438173063684211</v>
       </c>
       <c r="R22">
-        <v>0.9759340147785969</v>
+        <v>0.9856439480657895</v>
       </c>
       <c r="S22">
-        <v>0.9759340147785969</v>
+        <v>0.9856439480657895</v>
       </c>
       <c r="T22">
-        <v>1.009331875027023</v>
+        <v>0.9774231577456142</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9631478332547384</v>
+        <v>0.9609209112134006</v>
       </c>
       <c r="D23">
-        <v>1.127532719826262</v>
+        <v>1.128368443157231</v>
       </c>
       <c r="E23">
-        <v>1.102812605789562</v>
+        <v>1.100695383058844</v>
       </c>
       <c r="F23">
-        <v>0.6737229380453349</v>
+        <v>0.6880547720962833</v>
       </c>
       <c r="G23">
-        <v>1.08026522734354</v>
+        <v>1.107059991008629</v>
       </c>
       <c r="H23">
-        <v>1.127532719826262</v>
+        <v>1.128368443157231</v>
       </c>
       <c r="I23">
-        <v>0.8953101273278891</v>
+        <v>0.891306929757687</v>
       </c>
       <c r="J23">
-        <v>1.08026522734354</v>
+        <v>1.107059991008629</v>
       </c>
       <c r="K23">
-        <v>1.127532719826262</v>
+        <v>1.128368443157231</v>
       </c>
       <c r="L23">
-        <v>0.8953101273278891</v>
+        <v>0.891306929757687</v>
       </c>
       <c r="M23">
-        <v>0.9877876773357148</v>
+        <v>0.9991834603831578</v>
       </c>
       <c r="N23">
-        <v>0.9877876773357148</v>
+        <v>0.9991834603831578</v>
       </c>
       <c r="O23">
-        <v>1.026129320153664</v>
+        <v>1.03302076794172</v>
       </c>
       <c r="P23">
-        <v>1.034369358165897</v>
+        <v>1.042245121307849</v>
       </c>
       <c r="Q23">
-        <v>1.034369358165897</v>
+        <v>1.042245121307849</v>
       </c>
       <c r="R23">
-        <v>1.057660198580988</v>
+        <v>1.063775951770194</v>
       </c>
       <c r="S23">
-        <v>1.057660198580988</v>
+        <v>1.063775951770194</v>
       </c>
       <c r="T23">
-        <v>0.9737985752645545</v>
+        <v>0.9794010717153455</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.983081531568905</v>
+        <v>0.9845168770916293</v>
       </c>
       <c r="D24">
-        <v>0.913971151953227</v>
+        <v>0.9047903044316972</v>
       </c>
       <c r="E24">
-        <v>1.0278688742625</v>
+        <v>1.032003430596635</v>
       </c>
       <c r="F24">
-        <v>1.047251579162378</v>
+        <v>1.04052518779118</v>
       </c>
       <c r="G24">
-        <v>1.105869018855079</v>
+        <v>1.076603690857342</v>
       </c>
       <c r="H24">
-        <v>0.913971151953227</v>
+        <v>0.9047903044316972</v>
       </c>
       <c r="I24">
-        <v>1.011601476215179</v>
+        <v>1.017551759393651</v>
       </c>
       <c r="J24">
-        <v>1.105869018855079</v>
+        <v>1.076603690857342</v>
       </c>
       <c r="K24">
-        <v>0.913971151953227</v>
+        <v>0.9047903044316972</v>
       </c>
       <c r="L24">
-        <v>1.011601476215179</v>
+        <v>1.017551759393651</v>
       </c>
       <c r="M24">
-        <v>1.058735247535129</v>
+        <v>1.047077725125497</v>
       </c>
       <c r="N24">
-        <v>1.058735247535129</v>
+        <v>1.047077725125497</v>
       </c>
       <c r="O24">
-        <v>1.048446456444253</v>
+        <v>1.042052960282543</v>
       </c>
       <c r="P24">
-        <v>1.010480549007829</v>
+        <v>0.9996485848942301</v>
       </c>
       <c r="Q24">
-        <v>1.010480549007829</v>
+        <v>0.9996485848942301</v>
       </c>
       <c r="R24">
-        <v>0.9863531997441781</v>
+        <v>0.9759340147785969</v>
       </c>
       <c r="S24">
-        <v>0.9863531997441781</v>
+        <v>0.9759340147785969</v>
       </c>
       <c r="T24">
-        <v>1.014940605336211</v>
+        <v>1.009331875027023</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9653740121290679</v>
+        <v>0.9631478332547384</v>
       </c>
       <c r="D25">
-        <v>1.126680096169376</v>
+        <v>1.127532719826262</v>
       </c>
       <c r="E25">
-        <v>1.104934897030806</v>
+        <v>1.102812605789562</v>
       </c>
       <c r="F25">
-        <v>0.6593940378363135</v>
+        <v>0.6737229380453349</v>
       </c>
       <c r="G25">
-        <v>1.053475558244585</v>
+        <v>1.08026522734354</v>
       </c>
       <c r="H25">
-        <v>1.126680096169376</v>
+        <v>1.127532719826262</v>
       </c>
       <c r="I25">
-        <v>0.8993168049208548</v>
+        <v>0.8953101273278891</v>
       </c>
       <c r="J25">
-        <v>1.053475558244585</v>
+        <v>1.08026522734354</v>
       </c>
       <c r="K25">
-        <v>1.126680096169376</v>
+        <v>1.127532719826262</v>
       </c>
       <c r="L25">
-        <v>0.8993168049208548</v>
+        <v>0.8953101273278891</v>
       </c>
       <c r="M25">
-        <v>0.9763961815827198</v>
+        <v>0.9877876773357148</v>
       </c>
       <c r="N25">
-        <v>0.9763961815827198</v>
+        <v>0.9877876773357148</v>
       </c>
       <c r="O25">
-        <v>1.019242420065415</v>
+        <v>1.026129320153664</v>
       </c>
       <c r="P25">
-        <v>1.026490819778272</v>
+        <v>1.034369358165897</v>
       </c>
       <c r="Q25">
-        <v>1.026490819778272</v>
+        <v>1.034369358165897</v>
       </c>
       <c r="R25">
-        <v>1.051538138876048</v>
+        <v>1.057660198580988</v>
       </c>
       <c r="S25">
-        <v>1.051538138876048</v>
+        <v>1.057660198580988</v>
       </c>
       <c r="T25">
-        <v>0.9681959010551672</v>
+        <v>0.9737985752645545</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9816448473522654</v>
+        <v>0.983081531568905</v>
       </c>
       <c r="D26">
-        <v>0.9231607195563637</v>
+        <v>0.913971151953227</v>
       </c>
       <c r="E26">
-        <v>1.02373418262171</v>
+        <v>1.0278688742625</v>
       </c>
       <c r="F26">
-        <v>1.053975517974774</v>
+        <v>1.047251579162378</v>
       </c>
       <c r="G26">
-        <v>1.135141510133747</v>
+        <v>1.105869018855079</v>
       </c>
       <c r="H26">
-        <v>0.9231607195563637</v>
+        <v>0.913971151953227</v>
       </c>
       <c r="I26">
-        <v>1.005646365388522</v>
+        <v>1.011601476215179</v>
       </c>
       <c r="J26">
-        <v>1.135141510133747</v>
+        <v>1.105869018855079</v>
       </c>
       <c r="K26">
-        <v>0.9231607195563637</v>
+        <v>0.913971151953227</v>
       </c>
       <c r="L26">
-        <v>1.005646365388522</v>
+        <v>1.011601476215179</v>
       </c>
       <c r="M26">
-        <v>1.070393937761135</v>
+        <v>1.058735247535129</v>
       </c>
       <c r="N26">
-        <v>1.070393937761135</v>
+        <v>1.058735247535129</v>
       </c>
       <c r="O26">
-        <v>1.054840686047993</v>
+        <v>1.048446456444253</v>
       </c>
       <c r="P26">
-        <v>1.021316198359544</v>
+        <v>1.010480549007829</v>
       </c>
       <c r="Q26">
-        <v>1.021316198359544</v>
+        <v>1.010480549007829</v>
       </c>
       <c r="R26">
-        <v>0.9967773286587492</v>
+        <v>0.9863531997441781</v>
       </c>
       <c r="S26">
-        <v>0.9967773286587492</v>
+        <v>0.9863531997441781</v>
       </c>
       <c r="T26">
-        <v>1.020550523837897</v>
+        <v>1.014940605336211</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.021810617744254</v>
+        <v>0.9653740121290679</v>
       </c>
       <c r="D27">
-        <v>1.026860991389501</v>
+        <v>1.126680096169376</v>
       </c>
       <c r="E27">
-        <v>0.9580450919916782</v>
+        <v>1.104934897030806</v>
       </c>
       <c r="F27">
-        <v>1.045524441655595</v>
+        <v>0.6593940378363135</v>
       </c>
       <c r="G27">
-        <v>0.867186800749832</v>
+        <v>1.053475558244585</v>
       </c>
       <c r="H27">
-        <v>1.026860991389501</v>
+        <v>1.126680096169376</v>
       </c>
       <c r="I27">
-        <v>1.020718936492582</v>
+        <v>0.8993168049208548</v>
       </c>
       <c r="J27">
-        <v>0.867186800749832</v>
+        <v>1.053475558244585</v>
       </c>
       <c r="K27">
-        <v>1.026860991389501</v>
+        <v>1.126680096169376</v>
       </c>
       <c r="L27">
-        <v>1.020718936492582</v>
+        <v>0.8993168049208548</v>
       </c>
       <c r="M27">
-        <v>0.9439528686212072</v>
+        <v>0.9763961815827198</v>
       </c>
       <c r="N27">
-        <v>0.9439528686212072</v>
+        <v>0.9763961815827198</v>
       </c>
       <c r="O27">
-        <v>0.9486502764113642</v>
+        <v>1.019242420065415</v>
       </c>
       <c r="P27">
-        <v>0.9715889095439718</v>
+        <v>1.026490819778272</v>
       </c>
       <c r="Q27">
-        <v>0.9715889095439718</v>
+        <v>1.026490819778272</v>
       </c>
       <c r="R27">
-        <v>0.9854069300053541</v>
+        <v>1.051538138876048</v>
       </c>
       <c r="S27">
-        <v>0.9854069300053541</v>
+        <v>1.051538138876048</v>
       </c>
       <c r="T27">
-        <v>0.9900244800039072</v>
+        <v>0.9681959010551672</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.005605147238979</v>
+        <v>0.9816448473522654</v>
       </c>
       <c r="D28">
-        <v>0.9946073123746123</v>
+        <v>0.9231607195563637</v>
       </c>
       <c r="E28">
-        <v>1.003793103016205</v>
+        <v>1.02373418262171</v>
       </c>
       <c r="F28">
-        <v>0.9523142362852054</v>
+        <v>1.053975517974774</v>
       </c>
       <c r="G28">
-        <v>0.9933156628550061</v>
+        <v>1.135141510133747</v>
       </c>
       <c r="H28">
-        <v>0.9946073123746123</v>
+        <v>0.9231607195563637</v>
       </c>
       <c r="I28">
-        <v>1.009148901881041</v>
+        <v>1.005646365388522</v>
       </c>
       <c r="J28">
-        <v>0.9933156628550061</v>
+        <v>1.135141510133747</v>
       </c>
       <c r="K28">
-        <v>0.9946073123746123</v>
+        <v>0.9231607195563637</v>
       </c>
       <c r="L28">
-        <v>1.009148901881041</v>
+        <v>1.005646365388522</v>
       </c>
       <c r="M28">
-        <v>1.001232282368023</v>
+        <v>1.070393937761135</v>
       </c>
       <c r="N28">
-        <v>1.001232282368023</v>
+        <v>1.070393937761135</v>
       </c>
       <c r="O28">
-        <v>1.002085889250751</v>
+        <v>1.054840686047993</v>
       </c>
       <c r="P28">
-        <v>0.9990239590368862</v>
+        <v>1.021316198359544</v>
       </c>
       <c r="Q28">
-        <v>0.9990239590368862</v>
+        <v>1.021316198359544</v>
       </c>
       <c r="R28">
-        <v>0.9979197973713178</v>
+        <v>0.9967773286587492</v>
       </c>
       <c r="S28">
-        <v>0.9979197973713178</v>
+        <v>0.9967773286587492</v>
       </c>
       <c r="T28">
-        <v>0.9931307272751747</v>
+        <v>1.020550523837897</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.021810617744254</v>
+      </c>
+      <c r="D29">
+        <v>1.026860991389501</v>
+      </c>
+      <c r="E29">
+        <v>0.9580450919916782</v>
+      </c>
+      <c r="F29">
+        <v>1.045524441655595</v>
+      </c>
+      <c r="G29">
+        <v>0.867186800749832</v>
+      </c>
+      <c r="H29">
+        <v>1.026860991389501</v>
+      </c>
+      <c r="I29">
+        <v>1.020718936492582</v>
+      </c>
+      <c r="J29">
+        <v>0.867186800749832</v>
+      </c>
+      <c r="K29">
+        <v>1.026860991389501</v>
+      </c>
+      <c r="L29">
+        <v>1.020718936492582</v>
+      </c>
+      <c r="M29">
+        <v>0.9439528686212072</v>
+      </c>
+      <c r="N29">
+        <v>0.9439528686212072</v>
+      </c>
+      <c r="O29">
+        <v>0.9486502764113642</v>
+      </c>
+      <c r="P29">
+        <v>0.9715889095439718</v>
+      </c>
+      <c r="Q29">
+        <v>0.9715889095439718</v>
+      </c>
+      <c r="R29">
+        <v>0.9854069300053541</v>
+      </c>
+      <c r="S29">
+        <v>0.9854069300053541</v>
+      </c>
+      <c r="T29">
+        <v>0.9900244800039072</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.005605147238979</v>
+      </c>
+      <c r="D30">
+        <v>0.9946073123746123</v>
+      </c>
+      <c r="E30">
+        <v>1.003793103016205</v>
+      </c>
+      <c r="F30">
+        <v>0.9523142362852054</v>
+      </c>
+      <c r="G30">
+        <v>0.9933156628550061</v>
+      </c>
+      <c r="H30">
+        <v>0.9946073123746123</v>
+      </c>
+      <c r="I30">
+        <v>1.009148901881041</v>
+      </c>
+      <c r="J30">
+        <v>0.9933156628550061</v>
+      </c>
+      <c r="K30">
+        <v>0.9946073123746123</v>
+      </c>
+      <c r="L30">
+        <v>1.009148901881041</v>
+      </c>
+      <c r="M30">
+        <v>1.001232282368023</v>
+      </c>
+      <c r="N30">
+        <v>1.001232282368023</v>
+      </c>
+      <c r="O30">
+        <v>1.002085889250751</v>
+      </c>
+      <c r="P30">
+        <v>0.9990239590368862</v>
+      </c>
+      <c r="Q30">
+        <v>0.9990239590368862</v>
+      </c>
+      <c r="R30">
+        <v>0.9979197973713178</v>
+      </c>
+      <c r="S30">
+        <v>0.9979197973713178</v>
+      </c>
+      <c r="T30">
+        <v>0.9931307272751747</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9226764492204598</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9821972655179982</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.146228959941337</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.8131117274739731</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.373799857111372</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9821972655179982</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.8961026920619324</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.373799857111372</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9821972655179982</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.8961026920619324</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.134951274586652</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.134951274586652</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.138710503038214</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.084033271563767</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.084033271563767</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.058574270052325</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.058574270052325</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.022352825221179</v>
       </c>
     </row>
